--- a/excel_list/englishNameTranslate/dictionary_replace.xlsx
+++ b/excel_list/englishNameTranslate/dictionary_replace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adipr\PycharmProjects\englishTranslate\excel_list\englishNameTranslate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D19C0A-9779-403E-ADA3-B01B5419A5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F978A1BF-2C73-4E79-992E-4FF813696EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="translated_list" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translated_list!$A$1:$B$1587</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translated_list!$A$1:$B$1586</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="372">
   <si>
     <t>Japanese</t>
   </si>
@@ -1094,18 +1094,93 @@
   </si>
   <si>
     <t>Mitsuboshi Grapefruit Sour</t>
+  </si>
+  <si>
+    <t>キャラメルコーン</t>
+  </si>
+  <si>
+    <t>Caramel Corn</t>
+  </si>
+  <si>
+    <t>ヤンヤンつけボー</t>
+  </si>
+  <si>
+    <t>Yan Yan Tsukebo</t>
+  </si>
+  <si>
+    <t>夏のフルーツこれ一本</t>
+  </si>
+  <si>
+    <t>Summer Fruits Kore Ippon</t>
+  </si>
+  <si>
+    <t>ビックリマンチョコ</t>
+  </si>
+  <si>
+    <t>Bikkuri Man Choco</t>
+  </si>
+  <si>
+    <t>ビールにビーノ</t>
+  </si>
+  <si>
+    <t>Beer with Beano</t>
+  </si>
+  <si>
+    <t>経口補水液</t>
+  </si>
+  <si>
+    <t>Oral Rehydration Solution</t>
+  </si>
+  <si>
+    <t>フェットチーネグミ</t>
+  </si>
+  <si>
+    <t>Fettuccine Gummy</t>
+  </si>
+  <si>
+    <t>リアルゴールド</t>
+  </si>
+  <si>
+    <t>Real Gold</t>
+  </si>
+  <si>
+    <t>金箔付きチョコビス</t>
+  </si>
+  <si>
+    <t>Chocobis with Gold Leaf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="78">
+  <fonts count="81">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1700,46 +1775,52 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1748,6 +1829,9 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1760,199 +1844,205 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1965,28 +2055,28 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2001,40 +2091,47 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2043,38 +2140,34 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2083,46 +2176,40 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2130,6 +2217,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2154,16 +2251,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2178,14 +2265,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5419A842-DC45-4C76-BEEF-7190EF98B88D}" name="Table1" displayName="Table1" ref="A1:B1587" totalsRowShown="0" dataDxfId="2">
-  <autoFilter ref="A1:B1587" xr:uid="{CBA4EA5D-7BCB-4D65-BB42-CEEA87D5CB91}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1587">
-    <sortCondition descending="1" ref="B1:B1587"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5419A842-DC45-4C76-BEEF-7190EF98B88D}" name="Table1" displayName="Table1" ref="A1:B1586" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:B1586" xr:uid="{CBA4EA5D-7BCB-4D65-BB42-CEEA87D5CB91}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1586">
+    <sortCondition descending="1" ref="B1:B1586"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{15E797F2-2C33-4E26-B51B-3E305145D271}" name="Japanese" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{39026316-6CDF-4D2E-B0DD-E5B72B35008E}" name="English" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{15E797F2-2C33-4E26-B51B-3E305145D271}" name="Japanese" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{39026316-6CDF-4D2E-B0DD-E5B72B35008E}" name="English" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2450,10 +2537,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H2303"/>
+  <dimension ref="A1:H2302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -3217,7 +3304,7 @@
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="113" t="s">
+      <c r="A95" s="144" t="s">
         <v>93</v>
       </c>
       <c r="B95" s="114" t="s">
@@ -3904,124 +3991,186 @@
         <v>353</v>
       </c>
     </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>354</v>
+      </c>
+      <c r="B179" s="24" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>356</v>
+      </c>
+      <c r="B180" s="24" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>358</v>
+      </c>
+      <c r="B181" s="24" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>360</v>
+      </c>
+      <c r="B182" s="24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B183" s="126" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B184" s="126" t="s">
+        <v>365</v>
+      </c>
+    </row>
     <row r="185" spans="1:2">
-      <c r="B185" s="46"/>
+      <c r="A185" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B185" s="145" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="B186" s="39"/>
+      <c r="A186" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B186" s="146" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="8"/>
-      <c r="B187" s="46"/>
+      <c r="A187" s="147" t="s">
+        <v>370</v>
+      </c>
+      <c r="B187" s="146" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="8"/>
       <c r="B188" s="46"/>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="8"/>
-      <c r="B189" s="46"/>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="4"/>
-      <c r="B190" s="55"/>
+      <c r="A189" s="4"/>
+      <c r="B189" s="55"/>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="11"/>
+      <c r="B195" s="50"/>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="11"/>
       <c r="B196" s="50"/>
     </row>
-    <row r="197" spans="1:2">
-      <c r="B197" s="50"/>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="B206" s="49"/>
+    <row r="205" spans="1:2">
+      <c r="B205" s="49"/>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="B207" s="46"/>
     </row>
     <row r="208" spans="1:2">
-      <c r="B208" s="46"/>
+      <c r="B208" s="50"/>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" s="50"/>
     </row>
-    <row r="210" spans="2:2">
-      <c r="B210" s="50"/>
-    </row>
-    <row r="212" spans="2:2">
-      <c r="B212" s="46"/>
-    </row>
-    <row r="223" spans="2:2">
-      <c r="B223" s="46"/>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="11"/>
-      <c r="B232" s="50"/>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="B238" s="50"/>
-    </row>
-    <row r="243" spans="2:2" ht="15.75" customHeight="1"/>
-    <row r="250" spans="2:2">
-      <c r="B250" s="46"/>
+    <row r="211" spans="2:2">
+      <c r="B211" s="46"/>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" s="46"/>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="11"/>
+      <c r="B231" s="50"/>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="B237" s="50"/>
+    </row>
+    <row r="242" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="249" spans="2:2">
+      <c r="B249" s="46"/>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" s="46"/>
     </row>
     <row r="257" spans="1:2">
-      <c r="B257" s="46"/>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="B258" s="39"/>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="B266" s="39"/>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="1"/>
-      <c r="B269" s="56"/>
+      <c r="B257" s="39"/>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="B265" s="39"/>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="1"/>
+      <c r="B268" s="56"/>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="B276" s="46"/>
     </row>
     <row r="277" spans="1:6">
-      <c r="B277" s="46"/>
+      <c r="B277" s="39"/>
     </row>
     <row r="278" spans="1:6">
-      <c r="B278" s="39"/>
+      <c r="B278" s="46"/>
     </row>
     <row r="279" spans="1:6">
-      <c r="B279" s="46"/>
+      <c r="F279" s="3"/>
     </row>
     <row r="280" spans="1:6">
-      <c r="F280" s="3"/>
+      <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6">
+      <c r="A281" s="8"/>
+      <c r="B281" s="46"/>
       <c r="F281" s="2"/>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="8"/>
       <c r="B282" s="46"/>
-      <c r="F282" s="2"/>
+      <c r="F282" s="3"/>
     </row>
     <row r="283" spans="1:6">
-      <c r="A283" s="8"/>
-      <c r="B283" s="46"/>
       <c r="F283" s="3"/>
     </row>
     <row r="284" spans="1:6">
-      <c r="F284" s="3"/>
+      <c r="A284" s="6"/>
+      <c r="B284" s="39"/>
+      <c r="F284" s="2"/>
     </row>
     <row r="285" spans="1:6">
-      <c r="A285" s="6"/>
-      <c r="B285" s="39"/>
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6">
-      <c r="F286" s="2"/>
+      <c r="F286" s="3"/>
     </row>
     <row r="287" spans="1:6">
-      <c r="F287" s="3"/>
+      <c r="F287" s="2"/>
     </row>
     <row r="288" spans="1:6">
+      <c r="B288" s="46"/>
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6">
-      <c r="B289" s="46"/>
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6">
+      <c r="B290" s="39"/>
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6">
@@ -4037,19 +4186,18 @@
       <c r="F293" s="2"/>
     </row>
     <row r="294" spans="1:6">
-      <c r="B294" s="39"/>
-      <c r="F294" s="2"/>
+      <c r="F294" s="3"/>
     </row>
     <row r="295" spans="1:6">
-      <c r="F295" s="3"/>
+      <c r="B295" s="46"/>
+      <c r="F295" s="2"/>
     </row>
     <row r="296" spans="1:6">
-      <c r="B296" s="46"/>
+      <c r="A296" s="1"/>
+      <c r="B296" s="56"/>
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6">
-      <c r="A297" s="1"/>
-      <c r="B297" s="56"/>
       <c r="F297" s="2"/>
     </row>
     <row r="298" spans="1:6">
@@ -4059,16 +4207,17 @@
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6">
-      <c r="F300" s="2"/>
+      <c r="A300" s="37"/>
+      <c r="F300" s="3"/>
     </row>
     <row r="301" spans="1:6">
-      <c r="A301" s="37"/>
-      <c r="F301" s="3"/>
+      <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6">
       <c r="F302" s="2"/>
     </row>
     <row r="303" spans="1:6">
+      <c r="B303" s="50"/>
       <c r="F303" s="2"/>
     </row>
     <row r="304" spans="1:6">
@@ -4076,14 +4225,13 @@
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6">
-      <c r="B305" s="50"/>
       <c r="F305" s="2"/>
     </row>
     <row r="306" spans="1:6">
-      <c r="F306" s="2"/>
+      <c r="F306" s="3"/>
     </row>
     <row r="307" spans="1:6">
-      <c r="F307" s="3"/>
+      <c r="F307" s="2"/>
     </row>
     <row r="308" spans="1:6">
       <c r="F308" s="2"/>
@@ -4095,85 +4243,85 @@
       <c r="F310" s="2"/>
     </row>
     <row r="311" spans="1:6">
-      <c r="F311" s="2"/>
+      <c r="B311" s="50"/>
+      <c r="F311" s="3"/>
     </row>
     <row r="312" spans="1:6">
-      <c r="B312" s="50"/>
-      <c r="F312" s="3"/>
+      <c r="F312" s="2"/>
     </row>
     <row r="313" spans="1:6">
-      <c r="F313" s="2"/>
+      <c r="A313" s="11"/>
+      <c r="B313" s="50"/>
+      <c r="F313" s="3"/>
     </row>
     <row r="314" spans="1:6">
-      <c r="A314" s="11"/>
-      <c r="B314" s="50"/>
-      <c r="F314" s="3"/>
+      <c r="F314" s="2"/>
     </row>
     <row r="315" spans="1:6">
       <c r="F315" s="2"/>
     </row>
     <row r="316" spans="1:6">
-      <c r="F316" s="2"/>
+      <c r="F316" s="3"/>
     </row>
     <row r="317" spans="1:6">
-      <c r="F317" s="3"/>
+      <c r="B317" s="52"/>
+      <c r="F317" s="2"/>
     </row>
     <row r="318" spans="1:6">
-      <c r="B318" s="52"/>
       <c r="F318" s="2"/>
     </row>
     <row r="319" spans="1:6">
-      <c r="F319" s="2"/>
+      <c r="F319" s="3"/>
     </row>
     <row r="320" spans="1:6">
-      <c r="F320" s="3"/>
+      <c r="F320" s="2"/>
     </row>
     <row r="321" spans="1:6">
-      <c r="F321" s="2"/>
+      <c r="F321" s="3"/>
     </row>
     <row r="322" spans="1:6">
+      <c r="B322" s="39"/>
       <c r="F322" s="3"/>
     </row>
     <row r="323" spans="1:6">
-      <c r="B323" s="39"/>
+      <c r="A323" s="13"/>
       <c r="F323" s="3"/>
     </row>
     <row r="324" spans="1:6">
-      <c r="A324" s="13"/>
       <c r="F324" s="3"/>
     </row>
     <row r="325" spans="1:6">
-      <c r="F325" s="3"/>
+      <c r="F325" s="2"/>
     </row>
     <row r="326" spans="1:6">
-      <c r="F326" s="2"/>
+      <c r="F326" s="3"/>
     </row>
     <row r="327" spans="1:6">
-      <c r="F327" s="3"/>
+      <c r="F327" s="2"/>
     </row>
     <row r="328" spans="1:6">
-      <c r="F328" s="2"/>
+      <c r="A328" s="6"/>
+      <c r="B328" s="50"/>
+      <c r="F328" s="3"/>
     </row>
     <row r="329" spans="1:6">
-      <c r="A329" s="6"/>
-      <c r="B329" s="50"/>
+      <c r="A329" s="10"/>
+      <c r="B329" s="57"/>
       <c r="F329" s="3"/>
     </row>
     <row r="330" spans="1:6">
-      <c r="A330" s="10"/>
-      <c r="B330" s="57"/>
-      <c r="F330" s="3"/>
+      <c r="B330" s="46"/>
+      <c r="F330" s="2"/>
     </row>
     <row r="331" spans="1:6">
-      <c r="B331" s="46"/>
-      <c r="F331" s="2"/>
+      <c r="B331" s="49"/>
+      <c r="F331" s="3"/>
     </row>
     <row r="332" spans="1:6">
-      <c r="B332" s="49"/>
       <c r="F332" s="3"/>
     </row>
     <row r="333" spans="1:6">
-      <c r="F333" s="3"/>
+      <c r="F333" s="2"/>
     </row>
     <row r="334" spans="1:6">
       <c r="F334" s="2"/>
@@ -4182,131 +4330,132 @@
       <c r="F335" s="2"/>
     </row>
     <row r="336" spans="1:6">
-      <c r="F336" s="2"/>
-    </row>
-    <row r="337" spans="2:6">
-      <c r="B337" s="46"/>
-      <c r="F337" s="3"/>
-    </row>
-    <row r="338" spans="2:6">
+      <c r="B336" s="46"/>
+      <c r="F336" s="3"/>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="F337" s="2"/>
+    </row>
+    <row r="338" spans="1:6">
       <c r="F338" s="2"/>
     </row>
-    <row r="339" spans="2:6">
+    <row r="339" spans="1:6">
+      <c r="B339" s="49"/>
       <c r="F339" s="2"/>
     </row>
-    <row r="340" spans="2:6">
-      <c r="B340" s="49"/>
+    <row r="340" spans="1:6">
       <c r="F340" s="2"/>
     </row>
-    <row r="341" spans="2:6">
+    <row r="341" spans="1:6">
+      <c r="B341" s="39"/>
       <c r="F341" s="2"/>
     </row>
-    <row r="342" spans="2:6">
-      <c r="B342" s="39"/>
+    <row r="342" spans="1:6">
       <c r="F342" s="2"/>
     </row>
-    <row r="343" spans="2:6">
+    <row r="343" spans="1:6">
       <c r="F343" s="2"/>
     </row>
-    <row r="344" spans="2:6">
+    <row r="344" spans="1:6">
       <c r="F344" s="2"/>
     </row>
-    <row r="345" spans="2:6">
+    <row r="345" spans="1:6">
       <c r="F345" s="2"/>
     </row>
-    <row r="346" spans="2:6">
-      <c r="F346" s="2"/>
-    </row>
-    <row r="347" spans="2:6">
-      <c r="B347" s="39"/>
-      <c r="F347" s="3"/>
-    </row>
-    <row r="348" spans="2:6">
-      <c r="B348" s="46"/>
+    <row r="346" spans="1:6">
+      <c r="B346" s="39"/>
+      <c r="F346" s="3"/>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="B347" s="46"/>
+      <c r="F347" s="2"/>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="B348" s="50"/>
       <c r="F348" s="2"/>
     </row>
-    <row r="349" spans="2:6">
-      <c r="B349" s="50"/>
-      <c r="F349" s="2"/>
-    </row>
-    <row r="350" spans="2:6">
-      <c r="B350" s="58"/>
-      <c r="F350" s="3"/>
-    </row>
-    <row r="351" spans="2:6">
-      <c r="F351" s="2"/>
-    </row>
-    <row r="352" spans="2:6">
+    <row r="349" spans="1:6">
+      <c r="B349" s="58"/>
+      <c r="F349" s="3"/>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="F350" s="2"/>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="F351" s="3"/>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" s="1"/>
+      <c r="B352" s="56"/>
       <c r="F352" s="3"/>
     </row>
     <row r="353" spans="1:6">
-      <c r="A353" s="1"/>
-      <c r="B353" s="56"/>
-      <c r="F353" s="3"/>
+      <c r="B353" s="50"/>
+      <c r="F353" s="2"/>
     </row>
     <row r="354" spans="1:6">
-      <c r="B354" s="50"/>
-      <c r="F354" s="2"/>
+      <c r="F354" s="3"/>
     </row>
     <row r="355" spans="1:6">
       <c r="F355" s="3"/>
     </row>
     <row r="356" spans="1:6">
+      <c r="A356" s="12"/>
+      <c r="B356" s="50"/>
       <c r="F356" s="3"/>
     </row>
     <row r="357" spans="1:6">
-      <c r="A357" s="12"/>
-      <c r="B357" s="50"/>
+      <c r="A357" s="13"/>
       <c r="F357" s="3"/>
     </row>
     <row r="358" spans="1:6">
-      <c r="A358" s="13"/>
-      <c r="F358" s="3"/>
+      <c r="F358" s="2"/>
     </row>
     <row r="359" spans="1:6">
-      <c r="F359" s="2"/>
+      <c r="F359" s="3"/>
     </row>
     <row r="360" spans="1:6">
-      <c r="F360" s="3"/>
+      <c r="F360" s="2"/>
     </row>
     <row r="361" spans="1:6">
       <c r="F361" s="2"/>
     </row>
     <row r="362" spans="1:6">
+      <c r="A362" s="11"/>
+      <c r="B362" s="50"/>
       <c r="F362" s="2"/>
     </row>
     <row r="363" spans="1:6">
-      <c r="A363" s="11"/>
-      <c r="B363" s="50"/>
       <c r="F363" s="2"/>
     </row>
     <row r="364" spans="1:6">
       <c r="F364" s="2"/>
     </row>
     <row r="365" spans="1:6">
+      <c r="A365" s="37"/>
+      <c r="B365" s="39"/>
       <c r="F365" s="2"/>
     </row>
     <row r="366" spans="1:6">
-      <c r="A366" s="37"/>
-      <c r="B366" s="39"/>
+      <c r="A366" s="8"/>
+      <c r="B366" s="46"/>
       <c r="F366" s="2"/>
     </row>
     <row r="367" spans="1:6">
-      <c r="A367" s="8"/>
-      <c r="B367" s="46"/>
       <c r="F367" s="2"/>
     </row>
     <row r="368" spans="1:6">
+      <c r="B368" s="46"/>
       <c r="F368" s="2"/>
     </row>
     <row r="369" spans="1:6">
+      <c r="A369" s="8"/>
       <c r="B369" s="46"/>
       <c r="F369" s="2"/>
     </row>
     <row r="370" spans="1:6">
-      <c r="A370" s="8"/>
       <c r="B370" s="46"/>
-      <c r="F370" s="2"/>
+      <c r="F370" s="3"/>
     </row>
     <row r="371" spans="1:6">
       <c r="B371" s="46"/>
@@ -4317,73 +4466,74 @@
       <c r="F372" s="3"/>
     </row>
     <row r="373" spans="1:6">
-      <c r="B373" s="46"/>
+      <c r="B373" s="50"/>
       <c r="F373" s="3"/>
     </row>
     <row r="374" spans="1:6">
-      <c r="B374" s="50"/>
       <c r="F374" s="3"/>
     </row>
     <row r="375" spans="1:6">
       <c r="F375" s="3"/>
     </row>
     <row r="376" spans="1:6">
-      <c r="F376" s="3"/>
+      <c r="A376" s="6"/>
+      <c r="B376" s="50"/>
+      <c r="F376" s="2"/>
     </row>
     <row r="377" spans="1:6">
-      <c r="A377" s="6"/>
-      <c r="B377" s="50"/>
+      <c r="A377" s="37"/>
+      <c r="B377" s="39"/>
       <c r="F377" s="2"/>
     </row>
     <row r="378" spans="1:6">
-      <c r="A378" s="37"/>
-      <c r="B378" s="39"/>
       <c r="F378" s="2"/>
     </row>
     <row r="379" spans="1:6">
       <c r="F379" s="2"/>
     </row>
     <row r="380" spans="1:6">
+      <c r="B380" s="46"/>
       <c r="F380" s="2"/>
     </row>
     <row r="381" spans="1:6">
-      <c r="B381" s="46"/>
       <c r="F381" s="2"/>
     </row>
     <row r="382" spans="1:6">
+      <c r="B382" s="49"/>
       <c r="F382" s="2"/>
     </row>
     <row r="383" spans="1:6">
-      <c r="B383" s="49"/>
       <c r="F383" s="2"/>
     </row>
     <row r="384" spans="1:6">
-      <c r="F384" s="2"/>
+      <c r="F384" s="3"/>
     </row>
     <row r="385" spans="1:6">
+      <c r="B385" s="39"/>
       <c r="F385" s="3"/>
     </row>
     <row r="386" spans="1:6">
+      <c r="A386" s="8"/>
       <c r="B386" s="39"/>
-      <c r="F386" s="3"/>
+      <c r="F386" s="2"/>
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="8"/>
       <c r="B387" s="39"/>
-      <c r="F387" s="2"/>
+      <c r="F387" s="3"/>
     </row>
     <row r="388" spans="1:6">
-      <c r="A388" s="8"/>
-      <c r="B388" s="39"/>
       <c r="F388" s="3"/>
     </row>
     <row r="389" spans="1:6">
-      <c r="F389" s="3"/>
+      <c r="A389" s="1"/>
+      <c r="B389" s="56"/>
+      <c r="F389" s="2"/>
     </row>
     <row r="390" spans="1:6">
-      <c r="A390" s="1"/>
-      <c r="B390" s="56"/>
-      <c r="F390" s="2"/>
+      <c r="A390" s="8"/>
+      <c r="B390" s="46"/>
+      <c r="F390" s="3"/>
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="8"/>
@@ -4391,162 +4541,160 @@
       <c r="F391" s="3"/>
     </row>
     <row r="392" spans="1:6">
-      <c r="A392" s="8"/>
-      <c r="B392" s="46"/>
-      <c r="F392" s="3"/>
+      <c r="F392" s="2"/>
     </row>
     <row r="393" spans="1:6">
-      <c r="F393" s="2"/>
+      <c r="F393" s="3"/>
     </row>
     <row r="394" spans="1:6">
-      <c r="F394" s="3"/>
+      <c r="F394" s="2"/>
     </row>
     <row r="395" spans="1:6">
-      <c r="F395" s="2"/>
+      <c r="F395" s="3"/>
     </row>
     <row r="396" spans="1:6">
-      <c r="F396" s="3"/>
+      <c r="A396" s="10"/>
+      <c r="B396" s="57"/>
+      <c r="F396" s="2"/>
     </row>
     <row r="397" spans="1:6">
-      <c r="A397" s="10"/>
-      <c r="B397" s="57"/>
-      <c r="F397" s="2"/>
+      <c r="F397" s="3"/>
     </row>
     <row r="398" spans="1:6">
+      <c r="B398" s="50"/>
       <c r="F398" s="3"/>
     </row>
     <row r="399" spans="1:6">
-      <c r="B399" s="50"/>
-      <c r="F399" s="3"/>
+      <c r="F399" s="2"/>
     </row>
     <row r="400" spans="1:6">
-      <c r="F400" s="2"/>
+      <c r="F400" s="3"/>
     </row>
     <row r="401" spans="1:6">
+      <c r="B401" s="46"/>
       <c r="F401" s="3"/>
     </row>
     <row r="402" spans="1:6">
+      <c r="A402" s="8"/>
       <c r="B402" s="46"/>
       <c r="F402" s="3"/>
     </row>
     <row r="403" spans="1:6">
       <c r="A403" s="8"/>
       <c r="B403" s="46"/>
-      <c r="F403" s="3"/>
+      <c r="F403" s="2"/>
     </row>
     <row r="404" spans="1:6">
-      <c r="A404" s="8"/>
-      <c r="B404" s="46"/>
+      <c r="A404" s="37"/>
+      <c r="B404" s="39"/>
       <c r="F404" s="2"/>
     </row>
     <row r="405" spans="1:6">
-      <c r="A405" s="37"/>
-      <c r="B405" s="39"/>
       <c r="F405" s="2"/>
     </row>
     <row r="406" spans="1:6">
-      <c r="F406" s="2"/>
+      <c r="F406" s="3"/>
     </row>
     <row r="407" spans="1:6">
-      <c r="F407" s="3"/>
+      <c r="F407" s="2"/>
     </row>
     <row r="408" spans="1:6">
       <c r="F408" s="2"/>
     </row>
     <row r="409" spans="1:6">
-      <c r="F409" s="2"/>
+      <c r="F409" s="3"/>
     </row>
     <row r="410" spans="1:6">
-      <c r="F410" s="3"/>
+      <c r="F410" s="2"/>
     </row>
     <row r="411" spans="1:6">
-      <c r="F411" s="2"/>
+      <c r="F411" s="3"/>
     </row>
     <row r="412" spans="1:6">
-      <c r="F412" s="3"/>
+      <c r="F412" s="2"/>
     </row>
     <row r="413" spans="1:6">
-      <c r="F413" s="2"/>
+      <c r="F413" s="3"/>
     </row>
     <row r="414" spans="1:6">
-      <c r="F414" s="3"/>
+      <c r="F414" s="2"/>
     </row>
     <row r="415" spans="1:6">
+      <c r="A415" s="11"/>
+      <c r="B415" s="54"/>
       <c r="F415" s="2"/>
     </row>
     <row r="416" spans="1:6">
-      <c r="A416" s="11"/>
-      <c r="B416" s="54"/>
-      <c r="F416" s="2"/>
+      <c r="F416" s="3"/>
     </row>
     <row r="417" spans="1:6">
-      <c r="F417" s="3"/>
+      <c r="A417" s="1"/>
+      <c r="B417" s="46"/>
+      <c r="F417" s="2"/>
     </row>
     <row r="418" spans="1:6">
-      <c r="A418" s="1"/>
-      <c r="B418" s="46"/>
+      <c r="A418" s="37"/>
+      <c r="B418" s="39"/>
       <c r="F418" s="2"/>
     </row>
     <row r="419" spans="1:6">
-      <c r="A419" s="37"/>
-      <c r="B419" s="39"/>
       <c r="F419" s="2"/>
     </row>
     <row r="420" spans="1:6">
-      <c r="F420" s="2"/>
+      <c r="B420" s="39"/>
+      <c r="F420" s="3"/>
     </row>
     <row r="421" spans="1:6">
-      <c r="B421" s="39"/>
       <c r="F421" s="3"/>
     </row>
     <row r="422" spans="1:6">
-      <c r="F422" s="3"/>
+      <c r="F422" s="2"/>
     </row>
     <row r="423" spans="1:6">
+      <c r="B423" s="59"/>
       <c r="F423" s="2"/>
     </row>
     <row r="424" spans="1:6">
-      <c r="B424" s="59"/>
       <c r="F424" s="2"/>
     </row>
     <row r="425" spans="1:6">
+      <c r="B425" s="46"/>
       <c r="F425" s="2"/>
     </row>
     <row r="426" spans="1:6">
-      <c r="B426" s="46"/>
-      <c r="F426" s="2"/>
+      <c r="A426" s="13"/>
+      <c r="B426" s="49"/>
+      <c r="F426" s="3"/>
     </row>
     <row r="427" spans="1:6">
-      <c r="A427" s="13"/>
-      <c r="B427" s="49"/>
-      <c r="F427" s="3"/>
+      <c r="F427" s="2"/>
     </row>
     <row r="428" spans="1:6">
       <c r="F428" s="2"/>
     </row>
     <row r="429" spans="1:6">
-      <c r="F429" s="2"/>
+      <c r="F429" s="3"/>
     </row>
     <row r="430" spans="1:6">
+      <c r="B430" s="39"/>
       <c r="F430" s="3"/>
     </row>
     <row r="431" spans="1:6">
-      <c r="B431" s="39"/>
+      <c r="B431" s="50"/>
       <c r="F431" s="3"/>
     </row>
     <row r="432" spans="1:6">
-      <c r="B432" s="50"/>
-      <c r="F432" s="3"/>
+      <c r="B432" s="46"/>
+      <c r="F432" s="2"/>
     </row>
     <row r="433" spans="1:6">
-      <c r="B433" s="46"/>
-      <c r="F433" s="2"/>
+      <c r="F433" s="3"/>
     </row>
     <row r="434" spans="1:6">
       <c r="F434" s="3"/>
     </row>
     <row r="435" spans="1:6">
-      <c r="F435" s="3"/>
+      <c r="F435" s="2"/>
     </row>
     <row r="436" spans="1:6">
       <c r="F436" s="2"/>
@@ -4555,33 +4703,33 @@
       <c r="F437" s="2"/>
     </row>
     <row r="438" spans="1:6">
+      <c r="B438" s="52"/>
       <c r="F438" s="2"/>
     </row>
     <row r="439" spans="1:6">
-      <c r="B439" s="52"/>
+      <c r="A439" s="11"/>
+      <c r="B439" s="50"/>
       <c r="F439" s="2"/>
     </row>
     <row r="440" spans="1:6">
-      <c r="A440" s="11"/>
-      <c r="B440" s="50"/>
       <c r="F440" s="2"/>
     </row>
     <row r="441" spans="1:6">
-      <c r="F441" s="2"/>
+      <c r="F441" s="3"/>
     </row>
     <row r="442" spans="1:6">
+      <c r="A442" s="11"/>
+      <c r="B442" s="50"/>
       <c r="F442" s="3"/>
     </row>
     <row r="443" spans="1:6">
-      <c r="A443" s="11"/>
-      <c r="B443" s="50"/>
-      <c r="F443" s="3"/>
+      <c r="F443" s="2"/>
     </row>
     <row r="444" spans="1:6">
+      <c r="B444" s="46"/>
       <c r="F444" s="2"/>
     </row>
     <row r="445" spans="1:6">
-      <c r="B445" s="46"/>
       <c r="F445" s="2"/>
     </row>
     <row r="446" spans="1:6">
@@ -4597,42 +4745,43 @@
       <c r="F449" s="2"/>
     </row>
     <row r="450" spans="1:6">
-      <c r="F450" s="2"/>
+      <c r="B450" s="49"/>
+      <c r="F450" s="3"/>
     </row>
     <row r="451" spans="1:6">
-      <c r="B451" s="49"/>
-      <c r="F451" s="3"/>
+      <c r="F451" s="2"/>
     </row>
     <row r="452" spans="1:6">
       <c r="F452" s="2"/>
     </row>
     <row r="453" spans="1:6">
+      <c r="B453" s="60"/>
       <c r="F453" s="2"/>
     </row>
     <row r="454" spans="1:6">
-      <c r="B454" s="60"/>
-      <c r="F454" s="2"/>
+      <c r="F454" s="3"/>
     </row>
     <row r="455" spans="1:6">
-      <c r="F455" s="3"/>
+      <c r="F455" s="2"/>
     </row>
     <row r="456" spans="1:6">
-      <c r="F456" s="2"/>
+      <c r="F456" s="3"/>
     </row>
     <row r="457" spans="1:6">
-      <c r="F457" s="3"/>
+      <c r="B457" s="40"/>
+      <c r="F457" s="2"/>
     </row>
     <row r="458" spans="1:6">
-      <c r="B458" s="40"/>
       <c r="F458" s="2"/>
     </row>
     <row r="459" spans="1:6">
       <c r="F459" s="2"/>
     </row>
     <row r="460" spans="1:6">
-      <c r="F460" s="2"/>
+      <c r="B460" s="46"/>
     </row>
     <row r="461" spans="1:6">
+      <c r="A461" s="8"/>
       <c r="B461" s="46"/>
     </row>
     <row r="462" spans="1:6">
@@ -4640,55 +4789,54 @@
       <c r="B462" s="46"/>
     </row>
     <row r="463" spans="1:6">
-      <c r="A463" s="8"/>
-      <c r="B463" s="46"/>
+      <c r="A463" s="11"/>
+      <c r="B463" s="50"/>
     </row>
     <row r="464" spans="1:6">
       <c r="A464" s="11"/>
-      <c r="B464" s="50"/>
-    </row>
-    <row r="465" spans="1:4">
-      <c r="A465" s="11"/>
-      <c r="B465" s="40"/>
+      <c r="B464" s="40"/>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="B469" s="46"/>
     </row>
     <row r="470" spans="1:4">
       <c r="B470" s="46"/>
     </row>
-    <row r="471" spans="1:4">
-      <c r="B471" s="46"/>
+    <row r="475" spans="1:4">
+      <c r="B475" s="46"/>
     </row>
     <row r="476" spans="1:4">
-      <c r="B476" s="46"/>
+      <c r="A476" s="1"/>
+      <c r="B476" s="56"/>
     </row>
     <row r="477" spans="1:4">
-      <c r="A477" s="1"/>
-      <c r="B477" s="56"/>
+      <c r="D477" s="3"/>
     </row>
     <row r="478" spans="1:4">
-      <c r="D478" s="3"/>
+      <c r="A478" s="37"/>
+      <c r="B478" s="39"/>
+      <c r="D478" s="2"/>
     </row>
     <row r="479" spans="1:4">
-      <c r="A479" s="37"/>
-      <c r="B479" s="39"/>
-      <c r="D479" s="2"/>
+      <c r="D479" s="3"/>
     </row>
     <row r="480" spans="1:4">
-      <c r="D480" s="3"/>
+      <c r="D480" s="2"/>
     </row>
     <row r="481" spans="1:4">
       <c r="D481" s="2"/>
     </row>
     <row r="482" spans="1:4">
-      <c r="D482" s="2"/>
+      <c r="D482" s="3"/>
     </row>
     <row r="483" spans="1:4">
-      <c r="D483" s="3"/>
+      <c r="D483" s="2"/>
     </row>
     <row r="484" spans="1:4">
+      <c r="A484" s="37"/>
       <c r="D484" s="2"/>
     </row>
     <row r="485" spans="1:4">
-      <c r="A485" s="37"/>
       <c r="D485" s="2"/>
     </row>
     <row r="486" spans="1:4">
@@ -4698,41 +4846,42 @@
       <c r="D487" s="2"/>
     </row>
     <row r="488" spans="1:4">
-      <c r="D488" s="2"/>
+      <c r="D488" s="3"/>
     </row>
     <row r="489" spans="1:4">
-      <c r="D489" s="3"/>
+      <c r="D489" s="2"/>
     </row>
     <row r="490" spans="1:4">
+      <c r="A490" s="37"/>
+      <c r="B490" s="39"/>
       <c r="D490" s="2"/>
     </row>
     <row r="491" spans="1:4">
-      <c r="A491" s="37"/>
-      <c r="B491" s="39"/>
       <c r="D491" s="2"/>
     </row>
     <row r="492" spans="1:4">
-      <c r="D492" s="2"/>
+      <c r="A492" s="1"/>
+      <c r="B492" s="56"/>
     </row>
     <row r="493" spans="1:4">
-      <c r="A493" s="1"/>
-      <c r="B493" s="56"/>
+      <c r="D493" s="3"/>
     </row>
     <row r="494" spans="1:4">
-      <c r="D494" s="3"/>
+      <c r="B494" s="46"/>
+      <c r="D494" s="2"/>
     </row>
     <row r="495" spans="1:4">
       <c r="B495" s="46"/>
-      <c r="D495" s="2"/>
+      <c r="D495" s="3"/>
     </row>
     <row r="496" spans="1:4">
-      <c r="B496" s="46"/>
-      <c r="D496" s="3"/>
+      <c r="D496" s="2"/>
     </row>
     <row r="497" spans="1:4">
-      <c r="D497" s="2"/>
+      <c r="D497" s="3"/>
     </row>
     <row r="498" spans="1:4">
+      <c r="B498" s="39"/>
       <c r="D498" s="3"/>
     </row>
     <row r="499" spans="1:4">
@@ -4740,76 +4889,75 @@
       <c r="D499" s="3"/>
     </row>
     <row r="500" spans="1:4">
-      <c r="B500" s="39"/>
       <c r="D500" s="3"/>
     </row>
     <row r="501" spans="1:4">
-      <c r="D501" s="3"/>
+      <c r="B501" s="52"/>
+      <c r="D501" s="2"/>
     </row>
     <row r="502" spans="1:4">
-      <c r="B502" s="52"/>
       <c r="D502" s="2"/>
     </row>
     <row r="503" spans="1:4">
-      <c r="D503" s="2"/>
+      <c r="D503" s="3"/>
     </row>
     <row r="504" spans="1:4">
+      <c r="A504" s="37"/>
+      <c r="B504" s="39"/>
       <c r="D504" s="3"/>
     </row>
     <row r="505" spans="1:4">
-      <c r="A505" s="37"/>
-      <c r="B505" s="39"/>
       <c r="D505" s="3"/>
     </row>
     <row r="506" spans="1:4">
-      <c r="D506" s="3"/>
+      <c r="D506" s="2"/>
     </row>
     <row r="507" spans="1:4">
+      <c r="A507" s="87"/>
       <c r="D507" s="2"/>
     </row>
     <row r="508" spans="1:4">
-      <c r="A508" s="87"/>
-      <c r="D508" s="2"/>
+      <c r="B508" s="46"/>
+      <c r="D508" s="3"/>
     </row>
     <row r="509" spans="1:4">
+      <c r="A509" s="8"/>
       <c r="B509" s="46"/>
       <c r="D509" s="3"/>
     </row>
     <row r="510" spans="1:4">
-      <c r="A510" s="8"/>
-      <c r="B510" s="46"/>
       <c r="D510" s="3"/>
     </row>
     <row r="511" spans="1:4">
+      <c r="B511" s="50"/>
       <c r="D511" s="3"/>
     </row>
     <row r="512" spans="1:4">
-      <c r="B512" s="50"/>
       <c r="D512" s="3"/>
     </row>
     <row r="513" spans="1:4">
+      <c r="B513" s="46"/>
       <c r="D513" s="3"/>
     </row>
     <row r="514" spans="1:4">
-      <c r="B514" s="46"/>
       <c r="D514" s="3"/>
     </row>
     <row r="515" spans="1:4">
       <c r="D515" s="3"/>
     </row>
     <row r="516" spans="1:4">
+      <c r="B516" s="50"/>
       <c r="D516" s="3"/>
     </row>
     <row r="517" spans="1:4">
-      <c r="B517" s="50"/>
-      <c r="D517" s="3"/>
+      <c r="D517" s="2"/>
     </row>
     <row r="518" spans="1:4">
+      <c r="B518" s="46"/>
       <c r="D518" s="2"/>
     </row>
     <row r="519" spans="1:4">
-      <c r="B519" s="46"/>
-      <c r="D519" s="2"/>
+      <c r="D519" s="3"/>
     </row>
     <row r="520" spans="1:4">
       <c r="D520" s="3"/>
@@ -4818,58 +4966,58 @@
       <c r="D521" s="3"/>
     </row>
     <row r="522" spans="1:4">
-      <c r="D522" s="3"/>
+      <c r="A522" s="5"/>
+      <c r="B522" s="50"/>
+      <c r="D522" s="2"/>
     </row>
     <row r="523" spans="1:4">
-      <c r="A523" s="5"/>
-      <c r="B523" s="50"/>
       <c r="D523" s="2"/>
     </row>
     <row r="524" spans="1:4">
-      <c r="D524" s="2"/>
+      <c r="D524" s="3"/>
     </row>
     <row r="525" spans="1:4">
+      <c r="A525" s="4"/>
+      <c r="B525" s="55"/>
       <c r="D525" s="3"/>
     </row>
     <row r="526" spans="1:4">
-      <c r="A526" s="4"/>
-      <c r="B526" s="55"/>
-      <c r="D526" s="3"/>
+      <c r="A526" s="11"/>
+      <c r="B526" s="50"/>
+      <c r="D526" s="2"/>
     </row>
     <row r="527" spans="1:4">
-      <c r="A527" s="11"/>
-      <c r="B527" s="50"/>
-      <c r="D527" s="2"/>
+      <c r="B527" s="52"/>
+      <c r="D527" s="3"/>
     </row>
     <row r="528" spans="1:4">
-      <c r="B528" s="52"/>
-      <c r="D528" s="3"/>
+      <c r="D528" s="2"/>
     </row>
     <row r="529" spans="2:4">
       <c r="D529" s="2"/>
     </row>
     <row r="530" spans="2:4">
-      <c r="D530" s="2"/>
+      <c r="D530" s="3"/>
     </row>
     <row r="531" spans="2:4">
-      <c r="D531" s="3"/>
+      <c r="B531" s="46"/>
+      <c r="D531" s="2"/>
     </row>
     <row r="532" spans="2:4">
-      <c r="B532" s="46"/>
       <c r="D532" s="2"/>
     </row>
     <row r="533" spans="2:4">
-      <c r="D533" s="2"/>
+      <c r="B533" s="46"/>
+      <c r="D533" s="3"/>
     </row>
     <row r="534" spans="2:4">
-      <c r="B534" s="46"/>
       <c r="D534" s="3"/>
     </row>
     <row r="535" spans="2:4">
-      <c r="D535" s="3"/>
+      <c r="D535" s="2"/>
     </row>
     <row r="536" spans="2:4">
-      <c r="D536" s="2"/>
+      <c r="D536" s="3"/>
     </row>
     <row r="537" spans="2:4">
       <c r="D537" s="3"/>
@@ -4881,109 +5029,109 @@
       <c r="D539" s="3"/>
     </row>
     <row r="540" spans="2:4">
-      <c r="D540" s="3"/>
+      <c r="B540" s="46"/>
+      <c r="D540" s="2"/>
     </row>
     <row r="541" spans="2:4">
-      <c r="B541" s="46"/>
-      <c r="D541" s="2"/>
+      <c r="D541" s="3"/>
     </row>
     <row r="542" spans="2:4">
-      <c r="D542" s="3"/>
+      <c r="D542" s="2"/>
     </row>
     <row r="543" spans="2:4">
       <c r="D543" s="2"/>
     </row>
     <row r="544" spans="2:4">
-      <c r="D544" s="2"/>
+      <c r="B544" s="46"/>
+      <c r="D544" s="3"/>
     </row>
     <row r="545" spans="1:4">
-      <c r="B545" s="46"/>
       <c r="D545" s="3"/>
     </row>
     <row r="546" spans="1:4">
+      <c r="A546" s="37"/>
+      <c r="B546" s="39"/>
       <c r="D546" s="3"/>
     </row>
     <row r="547" spans="1:4">
-      <c r="A547" s="37"/>
-      <c r="B547" s="39"/>
       <c r="D547" s="3"/>
     </row>
     <row r="548" spans="1:4">
-      <c r="D548" s="3"/>
+      <c r="D548" s="2"/>
     </row>
     <row r="549" spans="1:4">
-      <c r="D549" s="2"/>
+      <c r="D549" s="3"/>
     </row>
     <row r="550" spans="1:4">
-      <c r="D550" s="3"/>
+      <c r="D550" s="2"/>
     </row>
     <row r="551" spans="1:4">
-      <c r="D551" s="2"/>
+      <c r="D551" s="3"/>
     </row>
     <row r="552" spans="1:4">
-      <c r="D552" s="3"/>
+      <c r="A552" s="37"/>
+      <c r="B552" s="39"/>
+      <c r="D552" s="2"/>
     </row>
     <row r="553" spans="1:4">
-      <c r="A553" s="37"/>
-      <c r="B553" s="39"/>
-      <c r="D553" s="2"/>
+      <c r="D553" s="3"/>
     </row>
     <row r="554" spans="1:4">
+      <c r="B554" s="46"/>
       <c r="D554" s="3"/>
     </row>
     <row r="555" spans="1:4">
-      <c r="B555" s="46"/>
-      <c r="D555" s="3"/>
+      <c r="D555" s="2"/>
     </row>
     <row r="556" spans="1:4">
       <c r="D556" s="2"/>
     </row>
     <row r="557" spans="1:4">
-      <c r="D557" s="2"/>
+      <c r="D557" s="3"/>
     </row>
     <row r="558" spans="1:4">
       <c r="D558" s="3"/>
     </row>
     <row r="559" spans="1:4">
-      <c r="D559" s="3"/>
+      <c r="A559" s="8"/>
+      <c r="B559" s="46"/>
+      <c r="D559" s="2"/>
     </row>
     <row r="560" spans="1:4">
-      <c r="A560" s="8"/>
-      <c r="B560" s="46"/>
       <c r="D560" s="2"/>
     </row>
     <row r="561" spans="1:4">
+      <c r="B561" s="46"/>
       <c r="D561" s="2"/>
     </row>
     <row r="562" spans="1:4">
-      <c r="B562" s="46"/>
+      <c r="B562" s="50"/>
       <c r="D562" s="2"/>
     </row>
     <row r="563" spans="1:4">
-      <c r="B563" s="50"/>
-      <c r="D563" s="2"/>
+      <c r="D563" s="3"/>
     </row>
     <row r="564" spans="1:4">
+      <c r="A564" s="8"/>
+      <c r="B564" s="46"/>
       <c r="D564" s="3"/>
     </row>
     <row r="565" spans="1:4">
-      <c r="A565" s="8"/>
-      <c r="B565" s="46"/>
-      <c r="D565" s="3"/>
+      <c r="B565" s="39"/>
+      <c r="D565" s="2"/>
     </row>
     <row r="566" spans="1:4">
-      <c r="B566" s="39"/>
       <c r="D566" s="2"/>
     </row>
     <row r="567" spans="1:4">
+      <c r="B567" s="39"/>
       <c r="D567" s="2"/>
     </row>
     <row r="568" spans="1:4">
-      <c r="B568" s="39"/>
-      <c r="D568" s="2"/>
+      <c r="D568" s="3"/>
     </row>
     <row r="569" spans="1:4">
-      <c r="D569" s="3"/>
+      <c r="D569" s="2"/>
     </row>
     <row r="570" spans="1:4">
       <c r="D570" s="2"/>
@@ -4992,23 +5140,23 @@
       <c r="D571" s="2"/>
     </row>
     <row r="572" spans="1:4">
+      <c r="A572" s="5"/>
+      <c r="B572" s="50"/>
       <c r="D572" s="2"/>
     </row>
     <row r="573" spans="1:4">
-      <c r="A573" s="5"/>
-      <c r="B573" s="50"/>
-      <c r="D573" s="2"/>
+      <c r="A573" s="8"/>
+      <c r="B573" s="46"/>
+      <c r="D573" s="3"/>
     </row>
     <row r="574" spans="1:4">
-      <c r="A574" s="8"/>
-      <c r="B574" s="46"/>
-      <c r="D574" s="3"/>
+      <c r="D574" s="2"/>
     </row>
     <row r="575" spans="1:4">
-      <c r="D575" s="2"/>
+      <c r="B575" s="50"/>
+      <c r="D575" s="3"/>
     </row>
     <row r="576" spans="1:4">
-      <c r="B576" s="50"/>
       <c r="D576" s="3"/>
     </row>
     <row r="577" spans="1:4">
@@ -5018,31 +5166,31 @@
       <c r="D578" s="3"/>
     </row>
     <row r="579" spans="1:4">
-      <c r="D579" s="3"/>
+      <c r="D579" s="2"/>
     </row>
     <row r="580" spans="1:4">
-      <c r="D580" s="2"/>
+      <c r="A580" s="11"/>
+      <c r="B580" s="39"/>
+      <c r="D580" s="3"/>
     </row>
     <row r="581" spans="1:4">
-      <c r="A581" s="11"/>
-      <c r="B581" s="39"/>
       <c r="D581" s="3"/>
     </row>
     <row r="582" spans="1:4">
+      <c r="A582" s="8"/>
+      <c r="B582" s="46"/>
       <c r="D582" s="3"/>
     </row>
     <row r="583" spans="1:4">
-      <c r="A583" s="8"/>
+      <c r="A583" s="1"/>
       <c r="B583" s="46"/>
       <c r="D583" s="3"/>
     </row>
     <row r="584" spans="1:4">
-      <c r="A584" s="1"/>
-      <c r="B584" s="46"/>
       <c r="D584" s="3"/>
     </row>
     <row r="585" spans="1:4">
-      <c r="D585" s="3"/>
+      <c r="D585" s="2"/>
     </row>
     <row r="586" spans="1:4">
       <c r="D586" s="2"/>
@@ -5054,66 +5202,66 @@
       <c r="D588" s="2"/>
     </row>
     <row r="589" spans="1:4">
+      <c r="B589" s="46"/>
       <c r="D589" s="2"/>
     </row>
     <row r="590" spans="1:4">
-      <c r="B590" s="46"/>
-      <c r="D590" s="2"/>
+      <c r="D590" s="3"/>
     </row>
     <row r="591" spans="1:4">
-      <c r="D591" s="3"/>
+      <c r="B591" s="46"/>
+      <c r="D591" s="2"/>
     </row>
     <row r="592" spans="1:4">
-      <c r="B592" s="46"/>
       <c r="D592" s="2"/>
     </row>
     <row r="593" spans="1:4">
+      <c r="A593" s="11"/>
+      <c r="B593" s="50"/>
       <c r="D593" s="2"/>
     </row>
     <row r="594" spans="1:4">
-      <c r="A594" s="11"/>
-      <c r="B594" s="50"/>
-      <c r="D594" s="2"/>
+      <c r="D594" s="3"/>
     </row>
     <row r="595" spans="1:4">
-      <c r="D595" s="3"/>
+      <c r="B595" s="46"/>
+      <c r="D595" s="2"/>
     </row>
     <row r="596" spans="1:4">
-      <c r="B596" s="46"/>
       <c r="D596" s="2"/>
     </row>
     <row r="597" spans="1:4">
-      <c r="D597" s="2"/>
+      <c r="D597" s="3"/>
     </row>
     <row r="598" spans="1:4">
       <c r="D598" s="3"/>
     </row>
     <row r="599" spans="1:4">
-      <c r="D599" s="3"/>
+      <c r="A599" s="1"/>
+      <c r="B599" s="56"/>
+      <c r="D599" s="2"/>
     </row>
     <row r="600" spans="1:4">
-      <c r="A600" s="1"/>
-      <c r="B600" s="56"/>
       <c r="D600" s="2"/>
     </row>
     <row r="601" spans="1:4">
-      <c r="D601" s="2"/>
+      <c r="B601" s="46"/>
+      <c r="D601" s="3"/>
     </row>
     <row r="602" spans="1:4">
-      <c r="B602" s="46"/>
       <c r="D602" s="3"/>
     </row>
     <row r="603" spans="1:4">
+      <c r="B603" s="40"/>
       <c r="D603" s="3"/>
     </row>
     <row r="604" spans="1:4">
+      <c r="A604" s="37"/>
       <c r="B604" s="40"/>
       <c r="D604" s="3"/>
     </row>
     <row r="605" spans="1:4">
-      <c r="A605" s="37"/>
-      <c r="B605" s="40"/>
-      <c r="D605" s="3"/>
+      <c r="D605" s="2"/>
     </row>
     <row r="606" spans="1:4">
       <c r="D606" s="2"/>
@@ -5122,179 +5270,179 @@
       <c r="D607" s="2"/>
     </row>
     <row r="608" spans="1:4">
+      <c r="B608" s="46"/>
       <c r="D608" s="2"/>
     </row>
     <row r="609" spans="1:4">
-      <c r="B609" s="46"/>
-      <c r="D609" s="2"/>
+      <c r="A609" s="13"/>
+      <c r="D609" s="3"/>
     </row>
     <row r="610" spans="1:4">
-      <c r="A610" s="13"/>
-      <c r="D610" s="3"/>
+      <c r="D610" s="2"/>
     </row>
     <row r="611" spans="1:4">
       <c r="D611" s="2"/>
     </row>
     <row r="612" spans="1:4">
+      <c r="A612" s="37"/>
+      <c r="B612" s="39"/>
       <c r="D612" s="2"/>
     </row>
     <row r="613" spans="1:4">
-      <c r="A613" s="37"/>
-      <c r="B613" s="39"/>
       <c r="D613" s="2"/>
     </row>
     <row r="614" spans="1:4">
+      <c r="B614" s="39"/>
       <c r="D614" s="2"/>
     </row>
     <row r="615" spans="1:4">
-      <c r="B615" s="39"/>
-      <c r="D615" s="2"/>
+      <c r="B615" s="46"/>
+      <c r="D615" s="3"/>
     </row>
     <row r="616" spans="1:4">
-      <c r="B616" s="46"/>
-      <c r="D616" s="3"/>
+      <c r="B616" s="39"/>
+      <c r="D616" s="2"/>
     </row>
     <row r="617" spans="1:4">
       <c r="B617" s="39"/>
       <c r="D617" s="2"/>
     </row>
     <row r="618" spans="1:4">
-      <c r="B618" s="39"/>
       <c r="D618" s="2"/>
     </row>
     <row r="619" spans="1:4">
       <c r="D619" s="2"/>
     </row>
     <row r="620" spans="1:4">
-      <c r="D620" s="2"/>
+      <c r="D620" s="3"/>
     </row>
     <row r="621" spans="1:4">
-      <c r="D621" s="3"/>
+      <c r="D621" s="2"/>
     </row>
     <row r="622" spans="1:4">
       <c r="D622" s="2"/>
     </row>
     <row r="623" spans="1:4">
+      <c r="A623" s="37"/>
       <c r="D623" s="2"/>
     </row>
-    <row r="624" spans="1:4">
-      <c r="A624" s="37"/>
-      <c r="D624" s="2"/>
-    </row>
-    <row r="637" spans="2:2">
-      <c r="B637" s="39"/>
-    </row>
-    <row r="642" spans="1:2">
-      <c r="B642" s="46"/>
+    <row r="636" spans="2:2">
+      <c r="B636" s="39"/>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="B641" s="46"/>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="B644" s="46"/>
     </row>
     <row r="645" spans="1:2">
-      <c r="B645" s="46"/>
-    </row>
-    <row r="646" spans="1:2">
-      <c r="A646" s="5"/>
-      <c r="B646" s="50"/>
+      <c r="A645" s="5"/>
+      <c r="B645" s="50"/>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="B647" s="46"/>
     </row>
     <row r="648" spans="1:2">
+      <c r="A648" s="6"/>
       <c r="B648" s="46"/>
     </row>
     <row r="649" spans="1:2">
-      <c r="A649" s="6"/>
-      <c r="B649" s="46"/>
+      <c r="A649" s="37"/>
+      <c r="B649" s="39"/>
     </row>
     <row r="650" spans="1:2">
-      <c r="A650" s="37"/>
-      <c r="B650" s="39"/>
+      <c r="A650" s="13"/>
+      <c r="B650" s="49"/>
     </row>
     <row r="651" spans="1:2">
-      <c r="A651" s="13"/>
-      <c r="B651" s="49"/>
+      <c r="A651" s="37"/>
+      <c r="B651" s="39"/>
     </row>
     <row r="652" spans="1:2">
-      <c r="A652" s="37"/>
       <c r="B652" s="39"/>
     </row>
     <row r="653" spans="1:2">
-      <c r="B653" s="39"/>
+      <c r="A653" s="13"/>
+      <c r="B653" s="52"/>
     </row>
     <row r="654" spans="1:2">
-      <c r="A654" s="13"/>
-      <c r="B654" s="52"/>
+      <c r="A654" s="37"/>
+      <c r="B654" s="39"/>
     </row>
     <row r="655" spans="1:2">
-      <c r="A655" s="37"/>
-      <c r="B655" s="39"/>
+      <c r="B655" s="61"/>
     </row>
     <row r="656" spans="1:2">
-      <c r="B656" s="61"/>
+      <c r="B656" s="49"/>
     </row>
     <row r="657" spans="1:2">
-      <c r="B657" s="49"/>
+      <c r="A657" s="13"/>
+      <c r="B657" s="39"/>
     </row>
     <row r="658" spans="1:2">
-      <c r="A658" s="13"/>
       <c r="B658" s="39"/>
     </row>
     <row r="659" spans="1:2">
       <c r="B659" s="39"/>
     </row>
     <row r="660" spans="1:2">
+      <c r="A660" s="87"/>
       <c r="B660" s="39"/>
     </row>
     <row r="661" spans="1:2">
-      <c r="A661" s="87"/>
       <c r="B661" s="39"/>
     </row>
     <row r="662" spans="1:2">
-      <c r="B662" s="39"/>
-    </row>
-    <row r="663" spans="1:2">
-      <c r="A663" s="9"/>
-      <c r="B663" s="52"/>
-    </row>
-    <row r="665" spans="1:2">
-      <c r="B665" s="62"/>
+      <c r="A662" s="9"/>
+      <c r="B662" s="52"/>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="B664" s="62"/>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="B666" s="39"/>
     </row>
     <row r="667" spans="1:2">
       <c r="B667" s="39"/>
     </row>
     <row r="668" spans="1:2">
-      <c r="B668" s="39"/>
-    </row>
-    <row r="669" spans="1:2">
-      <c r="B669" s="62"/>
+      <c r="B668" s="62"/>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="B670" s="62"/>
     </row>
     <row r="671" spans="1:2">
-      <c r="B671" s="62"/>
-    </row>
-    <row r="672" spans="1:2">
-      <c r="B672" s="39"/>
+      <c r="B671" s="39"/>
+    </row>
+    <row r="673" spans="2:2">
+      <c r="B673" s="62"/>
     </row>
     <row r="674" spans="2:2">
       <c r="B674" s="62"/>
     </row>
     <row r="675" spans="2:2">
-      <c r="B675" s="62"/>
+      <c r="B675" s="39"/>
     </row>
     <row r="676" spans="2:2">
-      <c r="B676" s="39"/>
+      <c r="B676" s="62"/>
     </row>
     <row r="677" spans="2:2">
       <c r="B677" s="62"/>
     </row>
-    <row r="678" spans="2:2">
-      <c r="B678" s="62"/>
+    <row r="679" spans="2:2">
+      <c r="B679" s="62"/>
     </row>
     <row r="680" spans="2:2">
       <c r="B680" s="62"/>
     </row>
-    <row r="681" spans="2:2">
-      <c r="B681" s="62"/>
+    <row r="682" spans="2:2">
+      <c r="B682" s="39"/>
     </row>
     <row r="683" spans="2:2">
       <c r="B683" s="39"/>
     </row>
     <row r="684" spans="2:2">
-      <c r="B684" s="39"/>
+      <c r="B684" s="62"/>
     </row>
     <row r="685" spans="2:2">
       <c r="B685" s="62"/>
@@ -5309,11 +5457,11 @@
       <c r="B688" s="62"/>
     </row>
     <row r="689" spans="1:2">
+      <c r="A689" s="14"/>
       <c r="B689" s="62"/>
     </row>
-    <row r="690" spans="1:2">
-      <c r="A690" s="14"/>
-      <c r="B690" s="62"/>
+    <row r="691" spans="1:2">
+      <c r="B691" s="62"/>
     </row>
     <row r="692" spans="1:2">
       <c r="B692" s="62"/>
@@ -5322,29 +5470,29 @@
       <c r="B693" s="62"/>
     </row>
     <row r="694" spans="1:2">
+      <c r="A694" s="14"/>
       <c r="B694" s="62"/>
     </row>
     <row r="695" spans="1:2">
-      <c r="A695" s="14"/>
       <c r="B695" s="62"/>
     </row>
     <row r="696" spans="1:2">
-      <c r="B696" s="62"/>
+      <c r="B696" s="39"/>
     </row>
     <row r="697" spans="1:2">
-      <c r="B697" s="39"/>
+      <c r="B697" s="62"/>
     </row>
     <row r="698" spans="1:2">
       <c r="B698" s="62"/>
     </row>
-    <row r="699" spans="1:2">
-      <c r="B699" s="62"/>
+    <row r="700" spans="1:2">
+      <c r="B700" s="39"/>
     </row>
     <row r="701" spans="1:2">
       <c r="B701" s="39"/>
     </row>
     <row r="702" spans="1:2">
-      <c r="B702" s="39"/>
+      <c r="B702" s="62"/>
     </row>
     <row r="703" spans="1:2">
       <c r="B703" s="62"/>
@@ -5362,76 +5510,77 @@
       <c r="B707" s="62"/>
     </row>
     <row r="708" spans="2:2">
-      <c r="B708" s="62"/>
+      <c r="B708" s="52"/>
     </row>
     <row r="709" spans="2:2">
-      <c r="B709" s="52"/>
+      <c r="B709" s="39"/>
     </row>
     <row r="710" spans="2:2">
-      <c r="B710" s="39"/>
+      <c r="B710" s="62"/>
     </row>
     <row r="711" spans="2:2">
-      <c r="B711" s="62"/>
+      <c r="B711" s="52"/>
     </row>
     <row r="712" spans="2:2">
-      <c r="B712" s="52"/>
-    </row>
-    <row r="713" spans="2:2">
-      <c r="B713" s="39"/>
+      <c r="B712" s="39"/>
+    </row>
+    <row r="714" spans="2:2">
+      <c r="B714" s="62"/>
     </row>
     <row r="715" spans="2:2">
-      <c r="B715" s="62"/>
+      <c r="B715" s="39"/>
     </row>
     <row r="716" spans="2:2">
-      <c r="B716" s="39"/>
+      <c r="B716" s="62"/>
     </row>
     <row r="717" spans="2:2">
       <c r="B717" s="62"/>
     </row>
-    <row r="718" spans="2:2">
-      <c r="B718" s="62"/>
-    </row>
-    <row r="720" spans="2:2">
-      <c r="B720" s="63"/>
+    <row r="719" spans="2:2">
+      <c r="B719" s="63"/>
+    </row>
+    <row r="721" spans="1:4">
+      <c r="A721" s="15"/>
+      <c r="B721" s="63"/>
     </row>
     <row r="722" spans="1:4">
-      <c r="A722" s="15"/>
-      <c r="B722" s="63"/>
+      <c r="D722" s="2"/>
     </row>
     <row r="723" spans="1:4">
       <c r="D723" s="2"/>
     </row>
     <row r="724" spans="1:4">
+      <c r="B724" s="63"/>
       <c r="D724" s="2"/>
     </row>
     <row r="725" spans="1:4">
       <c r="B725" s="63"/>
-      <c r="D725" s="2"/>
+      <c r="D725" s="3"/>
     </row>
     <row r="726" spans="1:4">
-      <c r="B726" s="63"/>
+      <c r="A726" s="37"/>
+      <c r="B726" s="39"/>
       <c r="D726" s="3"/>
     </row>
     <row r="727" spans="1:4">
-      <c r="A727" s="37"/>
-      <c r="B727" s="39"/>
+      <c r="B727" s="52"/>
       <c r="D727" s="3"/>
     </row>
     <row r="728" spans="1:4">
-      <c r="B728" s="52"/>
-      <c r="D728" s="3"/>
+      <c r="D728" s="2"/>
     </row>
     <row r="729" spans="1:4">
       <c r="D729" s="2"/>
     </row>
     <row r="730" spans="1:4">
-      <c r="D730" s="2"/>
+      <c r="B730" s="63"/>
+      <c r="D730" s="3"/>
     </row>
     <row r="731" spans="1:4">
-      <c r="B731" s="63"/>
       <c r="D731" s="3"/>
     </row>
     <row r="732" spans="1:4">
+      <c r="B732" s="39"/>
       <c r="D732" s="3"/>
     </row>
     <row r="733" spans="1:4">
@@ -5443,23 +5592,22 @@
       <c r="D734" s="3"/>
     </row>
     <row r="735" spans="1:4">
-      <c r="B735" s="39"/>
       <c r="D735" s="3"/>
     </row>
     <row r="736" spans="1:4">
-      <c r="D736" s="3"/>
+      <c r="D736" s="2"/>
     </row>
     <row r="737" spans="4:4">
-      <c r="D737" s="2"/>
+      <c r="D737" s="3"/>
     </row>
     <row r="738" spans="4:4">
       <c r="D738" s="3"/>
     </row>
     <row r="739" spans="4:4">
-      <c r="D739" s="3"/>
+      <c r="D739" s="2"/>
     </row>
     <row r="740" spans="4:4">
-      <c r="D740" s="2"/>
+      <c r="D740" s="3"/>
     </row>
     <row r="741" spans="4:4">
       <c r="D741" s="3"/>
@@ -5471,7 +5619,7 @@
       <c r="D743" s="3"/>
     </row>
     <row r="744" spans="4:4">
-      <c r="D744" s="3"/>
+      <c r="D744" s="2"/>
     </row>
     <row r="745" spans="4:4">
       <c r="D745" s="2"/>
@@ -5480,13 +5628,13 @@
       <c r="D746" s="2"/>
     </row>
     <row r="747" spans="4:4">
-      <c r="D747" s="2"/>
+      <c r="D747" s="3"/>
     </row>
     <row r="748" spans="4:4">
-      <c r="D748" s="3"/>
+      <c r="D748" s="2"/>
     </row>
     <row r="749" spans="4:4">
-      <c r="D749" s="2"/>
+      <c r="D749" s="3"/>
     </row>
     <row r="750" spans="4:4">
       <c r="D750" s="3"/>
@@ -5495,13 +5643,13 @@
       <c r="D751" s="3"/>
     </row>
     <row r="752" spans="4:4">
-      <c r="D752" s="3"/>
+      <c r="D752" s="2"/>
     </row>
     <row r="753" spans="1:4">
       <c r="D753" s="2"/>
     </row>
     <row r="754" spans="1:4">
-      <c r="D754" s="2"/>
+      <c r="D754" s="3"/>
     </row>
     <row r="755" spans="1:4">
       <c r="D755" s="3"/>
@@ -5522,19 +5670,19 @@
       <c r="D760" s="3"/>
     </row>
     <row r="761" spans="1:4">
-      <c r="D761" s="3"/>
+      <c r="D761" s="2"/>
     </row>
     <row r="762" spans="1:4">
-      <c r="D762" s="2"/>
+      <c r="D762" s="3"/>
     </row>
     <row r="763" spans="1:4">
-      <c r="D763" s="3"/>
+      <c r="D763" s="2"/>
     </row>
     <row r="764" spans="1:4">
+      <c r="A764" s="87"/>
       <c r="D764" s="2"/>
     </row>
     <row r="765" spans="1:4">
-      <c r="A765" s="87"/>
       <c r="D765" s="2"/>
     </row>
     <row r="766" spans="1:4">
@@ -5547,65 +5695,65 @@
       <c r="D768" s="2"/>
     </row>
     <row r="769" spans="1:4">
-      <c r="D769" s="2"/>
+      <c r="D769" s="3"/>
     </row>
     <row r="770" spans="1:4">
-      <c r="D770" s="3"/>
+      <c r="D770" s="2"/>
     </row>
     <row r="771" spans="1:4">
-      <c r="D771" s="2"/>
+      <c r="D771" s="3"/>
     </row>
     <row r="772" spans="1:4">
-      <c r="D772" s="3"/>
+      <c r="D772" s="2"/>
     </row>
     <row r="773" spans="1:4">
       <c r="D773" s="2"/>
     </row>
     <row r="774" spans="1:4">
-      <c r="D774" s="2"/>
+      <c r="D774" s="3"/>
     </row>
     <row r="775" spans="1:4">
-      <c r="D775" s="3"/>
+      <c r="B775" s="47"/>
+      <c r="D775" s="2"/>
     </row>
     <row r="776" spans="1:4">
+      <c r="A776" s="16"/>
       <c r="B776" s="47"/>
-      <c r="D776" s="2"/>
+      <c r="D776" s="3"/>
     </row>
     <row r="777" spans="1:4">
-      <c r="A777" s="16"/>
       <c r="B777" s="47"/>
-      <c r="D777" s="3"/>
+      <c r="D777" s="2"/>
     </row>
     <row r="778" spans="1:4">
       <c r="B778" s="47"/>
       <c r="D778" s="2"/>
     </row>
     <row r="779" spans="1:4">
-      <c r="B779" s="47"/>
       <c r="D779" s="2"/>
     </row>
     <row r="780" spans="1:4">
-      <c r="D780" s="2"/>
+      <c r="D780" s="3"/>
     </row>
     <row r="781" spans="1:4">
-      <c r="D781" s="3"/>
+      <c r="A781" s="16"/>
+      <c r="D781" s="2"/>
     </row>
     <row r="782" spans="1:4">
-      <c r="A782" s="16"/>
-      <c r="D782" s="2"/>
+      <c r="D782" s="3"/>
     </row>
     <row r="783" spans="1:4">
-      <c r="D783" s="3"/>
+      <c r="B783" s="47"/>
+      <c r="D783" s="2"/>
     </row>
     <row r="784" spans="1:4">
-      <c r="B784" s="47"/>
       <c r="D784" s="2"/>
     </row>
     <row r="785" spans="1:4">
-      <c r="D785" s="2"/>
+      <c r="D785" s="3"/>
     </row>
     <row r="786" spans="1:4">
-      <c r="D786" s="3"/>
+      <c r="D786" s="2"/>
     </row>
     <row r="787" spans="1:4">
       <c r="D787" s="2"/>
@@ -5614,132 +5762,133 @@
       <c r="D788" s="2"/>
     </row>
     <row r="789" spans="1:4">
-      <c r="D789" s="2"/>
+      <c r="D789" s="3"/>
     </row>
     <row r="790" spans="1:4">
-      <c r="D790" s="3"/>
+      <c r="D790" s="2"/>
     </row>
     <row r="791" spans="1:4">
-      <c r="D791" s="2"/>
+      <c r="D791" s="3"/>
     </row>
     <row r="792" spans="1:4">
+      <c r="B792" s="40"/>
       <c r="D792" s="3"/>
     </row>
     <row r="793" spans="1:4">
+      <c r="A793" s="16"/>
       <c r="B793" s="40"/>
-      <c r="D793" s="3"/>
-    </row>
-    <row r="794" spans="1:4">
-      <c r="A794" s="16"/>
-      <c r="B794" s="40"/>
-    </row>
-    <row r="798" spans="1:4">
-      <c r="B798" s="39"/>
+    </row>
+    <row r="797" spans="1:4">
+      <c r="B797" s="39"/>
+    </row>
+    <row r="800" spans="1:4">
+      <c r="B800" s="39"/>
     </row>
     <row r="801" spans="1:2">
+      <c r="A801" s="37"/>
       <c r="B801" s="39"/>
     </row>
     <row r="802" spans="1:2">
-      <c r="A802" s="37"/>
-      <c r="B802" s="39"/>
+      <c r="B802" s="47"/>
     </row>
     <row r="803" spans="1:2">
       <c r="B803" s="47"/>
     </row>
     <row r="804" spans="1:2">
-      <c r="B804" s="47"/>
-    </row>
-    <row r="805" spans="1:2">
-      <c r="B805" s="42"/>
+      <c r="B804" s="42"/>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="B808" s="64"/>
     </row>
     <row r="809" spans="1:2">
-      <c r="B809" s="64"/>
-    </row>
-    <row r="810" spans="1:2">
-      <c r="A810" s="19"/>
-      <c r="B810" s="51"/>
-    </row>
-    <row r="813" spans="1:2">
-      <c r="B813" s="39"/>
+      <c r="A809" s="19"/>
+      <c r="B809" s="51"/>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="B812" s="39"/>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819" s="9"/>
+      <c r="B819" s="65"/>
     </row>
     <row r="820" spans="1:2">
-      <c r="A820" s="9"/>
       <c r="B820" s="65"/>
     </row>
     <row r="821" spans="1:2">
-      <c r="B821" s="65"/>
+      <c r="A821" s="17"/>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" s="17"/>
-    </row>
-    <row r="823" spans="1:2">
-      <c r="A823" s="17"/>
-      <c r="B823" s="65"/>
+      <c r="B822" s="65"/>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" s="87"/>
     </row>
     <row r="826" spans="1:2">
-      <c r="A826" s="87"/>
+      <c r="B826" s="39"/>
     </row>
     <row r="827" spans="1:2">
       <c r="B827" s="39"/>
     </row>
-    <row r="828" spans="1:2">
-      <c r="B828" s="39"/>
+    <row r="832" spans="1:2">
+      <c r="A832" s="17"/>
+      <c r="B832" s="65"/>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" s="17"/>
       <c r="B833" s="65"/>
     </row>
-    <row r="834" spans="1:2">
-      <c r="A834" s="17"/>
-      <c r="B834" s="65"/>
-    </row>
-    <row r="838" spans="1:2">
-      <c r="B838" s="65"/>
-    </row>
-    <row r="841" spans="1:2">
-      <c r="A841" s="37"/>
-      <c r="B841" s="39"/>
-    </row>
-    <row r="848" spans="1:2">
-      <c r="A848" s="18"/>
-      <c r="B848" s="66"/>
-    </row>
-    <row r="852" spans="1:2">
-      <c r="B852" s="66"/>
-    </row>
-    <row r="855" spans="1:2">
-      <c r="A855" s="19"/>
-    </row>
-    <row r="859" spans="1:2">
-      <c r="A859" s="19"/>
-      <c r="B859" s="51"/>
+    <row r="837" spans="1:2">
+      <c r="B837" s="65"/>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="A840" s="37"/>
+      <c r="B840" s="39"/>
+    </row>
+    <row r="847" spans="1:2">
+      <c r="A847" s="18"/>
+      <c r="B847" s="66"/>
+    </row>
+    <row r="851" spans="1:2">
+      <c r="B851" s="66"/>
+    </row>
+    <row r="854" spans="1:2">
+      <c r="A854" s="19"/>
+    </row>
+    <row r="858" spans="1:2">
+      <c r="A858" s="19"/>
+      <c r="B858" s="51"/>
+    </row>
+    <row r="866" spans="1:2">
+      <c r="A866" s="19"/>
     </row>
     <row r="867" spans="1:2">
-      <c r="A867" s="19"/>
+      <c r="B867" s="67"/>
     </row>
     <row r="868" spans="1:2">
+      <c r="A868" s="20"/>
       <c r="B868" s="67"/>
     </row>
-    <row r="869" spans="1:2">
-      <c r="A869" s="20"/>
-      <c r="B869" s="67"/>
+    <row r="870" spans="1:2">
+      <c r="B870" s="39"/>
     </row>
     <row r="871" spans="1:2">
-      <c r="B871" s="39"/>
+      <c r="B871" s="67"/>
     </row>
     <row r="872" spans="1:2">
-      <c r="B872" s="67"/>
-    </row>
-    <row r="873" spans="1:2">
-      <c r="A873" s="37"/>
-      <c r="B873" s="39"/>
+      <c r="A872" s="37"/>
+      <c r="B872" s="39"/>
+    </row>
+    <row r="876" spans="1:2">
+      <c r="A876" s="9"/>
+      <c r="B876" s="67"/>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" s="9"/>
       <c r="B877" s="67"/>
     </row>
     <row r="878" spans="1:2">
-      <c r="A878" s="9"/>
+      <c r="A878" s="20"/>
       <c r="B878" s="67"/>
     </row>
     <row r="879" spans="1:2">
@@ -5747,105 +5896,104 @@
       <c r="B879" s="67"/>
     </row>
     <row r="880" spans="1:2">
-      <c r="A880" s="20"/>
-      <c r="B880" s="67"/>
-    </row>
-    <row r="881" spans="1:2">
-      <c r="B881" s="39"/>
-    </row>
-    <row r="894" spans="1:2">
-      <c r="A894" s="20"/>
-      <c r="B894" s="67"/>
+      <c r="B880" s="39"/>
+    </row>
+    <row r="893" spans="1:2">
+      <c r="A893" s="20"/>
+      <c r="B893" s="67"/>
+    </row>
+    <row r="899" spans="1:2">
+      <c r="B899" s="39"/>
     </row>
     <row r="900" spans="1:2">
+      <c r="A900" s="20"/>
       <c r="B900" s="39"/>
     </row>
-    <row r="901" spans="1:2">
-      <c r="A901" s="20"/>
-      <c r="B901" s="39"/>
-    </row>
-    <row r="903" spans="1:2">
-      <c r="B903" s="67"/>
-    </row>
-    <row r="907" spans="1:2">
-      <c r="A907" s="20"/>
-      <c r="B907" s="52"/>
-    </row>
-    <row r="920" spans="1:1">
-      <c r="A920" s="21"/>
-    </row>
-    <row r="931" spans="1:2">
-      <c r="B931" s="67"/>
-    </row>
-    <row r="933" spans="1:2">
-      <c r="A933" s="37"/>
-      <c r="B933" s="39"/>
-    </row>
-    <row r="935" spans="1:2">
-      <c r="B935" s="39"/>
+    <row r="902" spans="1:2">
+      <c r="B902" s="67"/>
+    </row>
+    <row r="906" spans="1:2">
+      <c r="A906" s="20"/>
+      <c r="B906" s="52"/>
+    </row>
+    <row r="919" spans="1:1">
+      <c r="A919" s="21"/>
+    </row>
+    <row r="930" spans="1:2">
+      <c r="B930" s="67"/>
+    </row>
+    <row r="932" spans="1:2">
+      <c r="A932" s="37"/>
+      <c r="B932" s="39"/>
+    </row>
+    <row r="934" spans="1:2">
+      <c r="B934" s="39"/>
+    </row>
+    <row r="936" spans="1:2">
+      <c r="A936" s="21"/>
     </row>
     <row r="937" spans="1:2">
-      <c r="A937" s="21"/>
+      <c r="B937" s="40"/>
     </row>
     <row r="938" spans="1:2">
-      <c r="B938" s="40"/>
+      <c r="A938" s="37"/>
     </row>
     <row r="939" spans="1:2">
-      <c r="A939" s="37"/>
-    </row>
-    <row r="940" spans="1:2">
-      <c r="B940" s="40"/>
+      <c r="B939" s="40"/>
+    </row>
+    <row r="941" spans="1:2">
+      <c r="A941" s="21"/>
+      <c r="B941" s="40"/>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" s="21"/>
-      <c r="B942" s="40"/>
+      <c r="B942" s="52"/>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" s="21"/>
       <c r="B943" s="52"/>
     </row>
     <row r="944" spans="1:2">
-      <c r="A944" s="21"/>
-      <c r="B944" s="52"/>
+      <c r="A944" s="37"/>
+      <c r="B944" s="39"/>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" s="37"/>
       <c r="B945" s="39"/>
     </row>
     <row r="946" spans="1:2">
-      <c r="A946" s="37"/>
+      <c r="A946" s="21"/>
       <c r="B946" s="39"/>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" s="21"/>
-      <c r="B947" s="39"/>
     </row>
     <row r="948" spans="1:2">
-      <c r="A948" s="21"/>
-    </row>
-    <row r="949" spans="1:2">
-      <c r="B949" s="39"/>
-    </row>
-    <row r="952" spans="1:2">
-      <c r="A952" s="37"/>
-    </row>
-    <row r="954" spans="1:2">
-      <c r="B954" s="39"/>
-    </row>
-    <row r="956" spans="1:2">
-      <c r="A956" s="21"/>
-      <c r="B956" s="52"/>
+      <c r="B948" s="39"/>
+    </row>
+    <row r="951" spans="1:2">
+      <c r="A951" s="37"/>
+    </row>
+    <row r="953" spans="1:2">
+      <c r="B953" s="39"/>
+    </row>
+    <row r="955" spans="1:2">
+      <c r="A955" s="21"/>
+      <c r="B955" s="52"/>
+    </row>
+    <row r="958" spans="1:2">
+      <c r="A958" s="21"/>
+      <c r="B958" s="52"/>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" s="21"/>
-      <c r="B959" s="52"/>
-    </row>
-    <row r="960" spans="1:2">
-      <c r="A960" s="21"/>
-    </row>
-    <row r="962" spans="1:2">
-      <c r="A962" s="21"/>
-      <c r="B962" s="52"/>
+    </row>
+    <row r="961" spans="1:2">
+      <c r="A961" s="21"/>
+      <c r="B961" s="52"/>
+    </row>
+    <row r="963" spans="1:2">
+      <c r="B963" s="52"/>
     </row>
     <row r="964" spans="1:2">
       <c r="B964" s="52"/>
@@ -5853,160 +6001,161 @@
     <row r="965" spans="1:2">
       <c r="B965" s="52"/>
     </row>
-    <row r="966" spans="1:2">
-      <c r="B966" s="52"/>
-    </row>
-    <row r="968" spans="1:2">
-      <c r="B968" s="39"/>
+    <row r="967" spans="1:2">
+      <c r="B967" s="39"/>
+    </row>
+    <row r="970" spans="1:2">
+      <c r="B970" s="39"/>
     </row>
     <row r="971" spans="1:2">
       <c r="B971" s="39"/>
     </row>
     <row r="972" spans="1:2">
-      <c r="B972" s="39"/>
-    </row>
-    <row r="973" spans="1:2">
-      <c r="B973" s="52"/>
-    </row>
-    <row r="975" spans="1:2">
-      <c r="B975" s="52"/>
+      <c r="B972" s="52"/>
+    </row>
+    <row r="974" spans="1:2">
+      <c r="B974" s="52"/>
+    </row>
+    <row r="977" spans="1:2">
+      <c r="B977" s="52"/>
     </row>
     <row r="978" spans="1:2">
       <c r="B978" s="52"/>
     </row>
-    <row r="979" spans="1:2">
-      <c r="B979" s="52"/>
+    <row r="985" spans="1:2">
+      <c r="A985" s="87"/>
+      <c r="B985" s="39"/>
     </row>
     <row r="986" spans="1:2">
-      <c r="A986" s="87"/>
-      <c r="B986" s="39"/>
+      <c r="B986" s="52"/>
     </row>
     <row r="987" spans="1:2">
       <c r="B987" s="52"/>
     </row>
-    <row r="988" spans="1:2">
-      <c r="B988" s="52"/>
-    </row>
-    <row r="992" spans="1:2">
-      <c r="B992" s="39"/>
+    <row r="991" spans="1:2">
+      <c r="B991" s="39"/>
+    </row>
+    <row r="995" spans="1:2">
+      <c r="B995" s="68"/>
     </row>
     <row r="996" spans="1:2">
-      <c r="B996" s="68"/>
-    </row>
-    <row r="997" spans="1:2">
-      <c r="A997" s="22"/>
+      <c r="A996" s="22"/>
+    </row>
+    <row r="1003" spans="1:2">
+      <c r="A1003" s="24"/>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" s="24"/>
     </row>
     <row r="1005" spans="1:2">
-      <c r="A1005" s="24"/>
+      <c r="A1005" s="23"/>
+      <c r="B1005" s="39"/>
     </row>
     <row r="1006" spans="1:2">
-      <c r="A1006" s="23"/>
-      <c r="B1006" s="39"/>
+      <c r="B1006" s="25"/>
     </row>
     <row r="1007" spans="1:2">
+      <c r="A1007" s="23"/>
       <c r="B1007" s="25"/>
     </row>
     <row r="1008" spans="1:2">
-      <c r="A1008" s="23"/>
       <c r="B1008" s="25"/>
     </row>
     <row r="1009" spans="1:2">
-      <c r="B1009" s="25"/>
-    </row>
-    <row r="1010" spans="1:2">
-      <c r="B1010" s="39"/>
-    </row>
-    <row r="1012" spans="1:2">
-      <c r="A1012" s="23"/>
-      <c r="B1012" s="39"/>
-    </row>
-    <row r="1015" spans="1:2">
-      <c r="B1015" s="25"/>
-    </row>
-    <row r="1017" spans="1:2">
-      <c r="B1017" s="25"/>
+      <c r="B1009" s="39"/>
+    </row>
+    <row r="1011" spans="1:2">
+      <c r="A1011" s="23"/>
+      <c r="B1011" s="39"/>
+    </row>
+    <row r="1014" spans="1:2">
+      <c r="B1014" s="25"/>
+    </row>
+    <row r="1016" spans="1:2">
+      <c r="B1016" s="25"/>
+    </row>
+    <row r="1021" spans="1:2">
+      <c r="A1021" s="37"/>
     </row>
     <row r="1022" spans="1:2">
-      <c r="A1022" s="37"/>
+      <c r="A1022" s="24"/>
     </row>
     <row r="1023" spans="1:2">
-      <c r="A1023" s="24"/>
-    </row>
-    <row r="1024" spans="1:2">
-      <c r="A1024" s="39"/>
-      <c r="B1024" s="39"/>
+      <c r="A1023" s="39"/>
+      <c r="B1023" s="39"/>
+    </row>
+    <row r="1025" spans="1:2">
+      <c r="A1025" s="23"/>
     </row>
     <row r="1026" spans="1:2">
-      <c r="A1026" s="23"/>
-    </row>
-    <row r="1027" spans="1:2">
-      <c r="B1027" s="39"/>
+      <c r="B1026" s="39"/>
+    </row>
+    <row r="1028" spans="1:2">
+      <c r="A1028" s="37"/>
     </row>
     <row r="1029" spans="1:2">
-      <c r="A1029" s="37"/>
+      <c r="B1029" s="25"/>
     </row>
     <row r="1030" spans="1:2">
-      <c r="B1030" s="25"/>
-    </row>
-    <row r="1031" spans="1:2">
-      <c r="B1031" s="39"/>
-    </row>
-    <row r="1035" spans="1:2">
-      <c r="A1035" s="39"/>
-      <c r="B1035" s="40"/>
-    </row>
-    <row r="1037" spans="1:2">
-      <c r="A1037" s="37"/>
-      <c r="B1037" s="40"/>
+      <c r="B1030" s="39"/>
+    </row>
+    <row r="1034" spans="1:2">
+      <c r="A1034" s="39"/>
+      <c r="B1034" s="40"/>
+    </row>
+    <row r="1036" spans="1:2">
+      <c r="A1036" s="37"/>
+      <c r="B1036" s="40"/>
+    </row>
+    <row r="1038" spans="1:2">
+      <c r="A1038" s="23"/>
+      <c r="B1038" s="25"/>
     </row>
     <row r="1039" spans="1:2">
-      <c r="A1039" s="23"/>
       <c r="B1039" s="25"/>
     </row>
     <row r="1040" spans="1:2">
-      <c r="B1040" s="25"/>
+      <c r="A1040" s="23"/>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" s="23"/>
     </row>
     <row r="1042" spans="1:2">
-      <c r="A1042" s="23"/>
-    </row>
-    <row r="1043" spans="1:2">
-      <c r="B1043" s="39"/>
+      <c r="B1042" s="39"/>
+    </row>
+    <row r="1045" spans="1:2">
+      <c r="A1045" s="24"/>
     </row>
     <row r="1046" spans="1:2">
-      <c r="A1046" s="24"/>
-    </row>
-    <row r="1047" spans="1:2">
-      <c r="A1047" s="39"/>
-      <c r="B1047" s="39"/>
+      <c r="A1046" s="39"/>
+      <c r="B1046" s="39"/>
+    </row>
+    <row r="1048" spans="1:2">
+      <c r="B1048" s="25"/>
     </row>
     <row r="1049" spans="1:2">
+      <c r="A1049" s="23"/>
       <c r="B1049" s="25"/>
     </row>
-    <row r="1050" spans="1:2">
-      <c r="A1050" s="23"/>
-      <c r="B1050" s="25"/>
+    <row r="1051" spans="1:2">
+      <c r="B1051" s="25"/>
     </row>
     <row r="1052" spans="1:2">
       <c r="B1052" s="25"/>
     </row>
-    <row r="1053" spans="1:2">
-      <c r="B1053" s="25"/>
+    <row r="1054" spans="1:2">
+      <c r="B1054" s="25"/>
     </row>
     <row r="1055" spans="1:2">
-      <c r="B1055" s="25"/>
+      <c r="B1055" s="39"/>
     </row>
     <row r="1056" spans="1:2">
-      <c r="B1056" s="39"/>
+      <c r="A1056" s="25"/>
+      <c r="B1056" s="25"/>
     </row>
     <row r="1057" spans="1:2">
-      <c r="A1057" s="25"/>
-      <c r="B1057" s="25"/>
+      <c r="A1057" s="24"/>
+      <c r="B1057" s="39"/>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" s="24"/>
@@ -6014,172 +6163,172 @@
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" s="24"/>
-      <c r="B1059" s="39"/>
-    </row>
-    <row r="1060" spans="1:2">
-      <c r="A1060" s="24"/>
-    </row>
-    <row r="1064" spans="1:2">
-      <c r="A1064" s="37"/>
-    </row>
-    <row r="1067" spans="1:2">
-      <c r="B1067" s="25"/>
+    </row>
+    <row r="1063" spans="1:2">
+      <c r="A1063" s="37"/>
+    </row>
+    <row r="1066" spans="1:2">
+      <c r="B1066" s="25"/>
+    </row>
+    <row r="1068" spans="1:2">
+      <c r="B1068" s="25"/>
     </row>
     <row r="1069" spans="1:2">
       <c r="B1069" s="25"/>
     </row>
     <row r="1070" spans="1:2">
-      <c r="B1070" s="25"/>
+      <c r="B1070" s="40"/>
     </row>
     <row r="1071" spans="1:2">
-      <c r="B1071" s="40"/>
-    </row>
-    <row r="1072" spans="1:2">
-      <c r="A1072" s="23"/>
+      <c r="A1071" s="23"/>
+    </row>
+    <row r="1074" spans="1:2">
+      <c r="A1074" s="24"/>
     </row>
     <row r="1075" spans="1:2">
-      <c r="A1075" s="24"/>
+      <c r="A1075" s="39"/>
+      <c r="B1075" s="39"/>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" s="39"/>
       <c r="B1076" s="39"/>
     </row>
-    <row r="1077" spans="1:2">
-      <c r="A1077" s="39"/>
-      <c r="B1077" s="39"/>
+    <row r="1078" spans="1:2">
+      <c r="A1078" s="23"/>
+      <c r="B1078" s="39"/>
     </row>
     <row r="1079" spans="1:2">
-      <c r="A1079" s="23"/>
-      <c r="B1079" s="39"/>
-    </row>
-    <row r="1080" spans="1:2">
-      <c r="B1080" s="25"/>
-    </row>
-    <row r="1090" spans="2:2">
-      <c r="B1090" s="69"/>
-    </row>
-    <row r="1093" spans="2:2">
-      <c r="B1093" s="69"/>
-    </row>
-    <row r="1103" spans="2:2">
-      <c r="B1103" s="69"/>
+      <c r="B1079" s="25"/>
+    </row>
+    <row r="1089" spans="2:2">
+      <c r="B1089" s="69"/>
+    </row>
+    <row r="1092" spans="2:2">
+      <c r="B1092" s="69"/>
+    </row>
+    <row r="1102" spans="2:2">
+      <c r="B1102" s="69"/>
+    </row>
+    <row r="1105" spans="1:2">
+      <c r="A1105" s="26"/>
+      <c r="B1105" s="53"/>
     </row>
     <row r="1106" spans="1:2">
-      <c r="A1106" s="26"/>
-      <c r="B1106" s="53"/>
+      <c r="B1106" s="39"/>
     </row>
     <row r="1107" spans="1:2">
+      <c r="A1107" s="37"/>
       <c r="B1107" s="39"/>
     </row>
-    <row r="1108" spans="1:2">
-      <c r="A1108" s="37"/>
-      <c r="B1108" s="39"/>
-    </row>
-    <row r="1110" spans="1:2">
-      <c r="A1110" s="37"/>
-      <c r="B1110" s="39"/>
-    </row>
-    <row r="1118" spans="1:2">
-      <c r="B1118" s="69"/>
-    </row>
-    <row r="1120" spans="1:2">
-      <c r="B1120" s="69"/>
+    <row r="1109" spans="1:2">
+      <c r="A1109" s="37"/>
+      <c r="B1109" s="39"/>
+    </row>
+    <row r="1117" spans="1:2">
+      <c r="B1117" s="69"/>
+    </row>
+    <row r="1119" spans="1:2">
+      <c r="B1119" s="69"/>
+    </row>
+    <row r="1121" spans="1:2">
+      <c r="B1121" s="69"/>
     </row>
     <row r="1122" spans="1:2">
+      <c r="A1122" s="26"/>
       <c r="B1122" s="69"/>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" s="26"/>
       <c r="B1123" s="69"/>
     </row>
-    <row r="1124" spans="1:2">
-      <c r="A1124" s="26"/>
-      <c r="B1124" s="69"/>
+    <row r="1125" spans="1:2">
+      <c r="A1125" s="26"/>
+      <c r="B1125" s="69"/>
     </row>
     <row r="1126" spans="1:2">
-      <c r="A1126" s="26"/>
+      <c r="A1126" s="9"/>
       <c r="B1126" s="69"/>
     </row>
     <row r="1127" spans="1:2">
-      <c r="A1127" s="9"/>
-      <c r="B1127" s="69"/>
-    </row>
-    <row r="1128" spans="1:2">
-      <c r="A1128" s="26"/>
+      <c r="A1127" s="26"/>
+    </row>
+    <row r="1129" spans="1:2">
+      <c r="B1129" s="69"/>
     </row>
     <row r="1130" spans="1:2">
-      <c r="B1130" s="69"/>
-    </row>
-    <row r="1131" spans="1:2">
-      <c r="B1131" s="39"/>
-    </row>
-    <row r="1136" spans="1:2">
-      <c r="B1136" s="69"/>
-    </row>
-    <row r="1140" spans="1:2">
-      <c r="B1140" s="39"/>
-    </row>
-    <row r="1142" spans="1:2">
-      <c r="B1142" s="69"/>
-    </row>
-    <row r="1146" spans="1:2">
-      <c r="B1146" s="39"/>
-    </row>
-    <row r="1148" spans="1:2">
-      <c r="B1148" s="39"/>
+      <c r="B1130" s="39"/>
+    </row>
+    <row r="1135" spans="1:2">
+      <c r="B1135" s="69"/>
+    </row>
+    <row r="1139" spans="1:2">
+      <c r="B1139" s="39"/>
+    </row>
+    <row r="1141" spans="1:2">
+      <c r="B1141" s="69"/>
+    </row>
+    <row r="1145" spans="1:2">
+      <c r="B1145" s="39"/>
+    </row>
+    <row r="1147" spans="1:2">
+      <c r="B1147" s="39"/>
+    </row>
+    <row r="1149" spans="1:2">
+      <c r="B1149" s="39"/>
     </row>
     <row r="1150" spans="1:2">
+      <c r="A1150" s="37"/>
       <c r="B1150" s="39"/>
     </row>
-    <row r="1151" spans="1:2">
-      <c r="A1151" s="37"/>
-      <c r="B1151" s="39"/>
-    </row>
-    <row r="1154" spans="1:2">
-      <c r="B1154" s="39"/>
-    </row>
-    <row r="1157" spans="1:2">
-      <c r="B1157" s="69"/>
+    <row r="1153" spans="1:2">
+      <c r="B1153" s="39"/>
+    </row>
+    <row r="1156" spans="1:2">
+      <c r="B1156" s="69"/>
+    </row>
+    <row r="1159" spans="1:2">
+      <c r="B1159" s="69"/>
     </row>
     <row r="1160" spans="1:2">
       <c r="B1160" s="69"/>
     </row>
     <row r="1161" spans="1:2">
+      <c r="A1161" s="26"/>
       <c r="B1161" s="69"/>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" s="26"/>
-      <c r="B1162" s="69"/>
+      <c r="B1162" s="39"/>
     </row>
     <row r="1163" spans="1:2">
-      <c r="A1163" s="26"/>
       <c r="B1163" s="39"/>
     </row>
     <row r="1164" spans="1:2">
-      <c r="B1164" s="39"/>
+      <c r="B1164" s="69"/>
     </row>
     <row r="1165" spans="1:2">
       <c r="B1165" s="69"/>
     </row>
     <row r="1166" spans="1:2">
-      <c r="B1166" s="69"/>
-    </row>
-    <row r="1167" spans="1:2">
-      <c r="B1167" s="39"/>
+      <c r="B1166" s="39"/>
+    </row>
+    <row r="1169" spans="1:2">
+      <c r="B1169" s="39"/>
     </row>
     <row r="1170" spans="1:2">
       <c r="B1170" s="39"/>
     </row>
-    <row r="1171" spans="1:2">
-      <c r="B1171" s="39"/>
-    </row>
-    <row r="1173" spans="1:2">
-      <c r="A1173" s="9"/>
+    <row r="1172" spans="1:2">
+      <c r="A1172" s="9"/>
+    </row>
+    <row r="1174" spans="1:2">
+      <c r="B1174" s="40"/>
     </row>
     <row r="1175" spans="1:2">
-      <c r="B1175" s="40"/>
+      <c r="B1175" s="39"/>
     </row>
     <row r="1176" spans="1:2">
+      <c r="A1176" s="37"/>
       <c r="B1176" s="39"/>
     </row>
     <row r="1177" spans="1:2">
@@ -6187,33 +6336,32 @@
       <c r="B1177" s="39"/>
     </row>
     <row r="1178" spans="1:2">
-      <c r="A1178" s="37"/>
-      <c r="B1178" s="39"/>
+      <c r="A1178" s="26"/>
+      <c r="B1178" s="69"/>
     </row>
     <row r="1179" spans="1:2">
-      <c r="A1179" s="26"/>
       <c r="B1179" s="69"/>
     </row>
     <row r="1180" spans="1:2">
-      <c r="B1180" s="69"/>
-    </row>
-    <row r="1181" spans="1:2">
-      <c r="B1181" s="39"/>
+      <c r="B1180" s="39"/>
+    </row>
+    <row r="1183" spans="1:2">
+      <c r="A1183" s="26"/>
+      <c r="B1183" s="70"/>
     </row>
     <row r="1184" spans="1:2">
-      <c r="A1184" s="26"/>
       <c r="B1184" s="70"/>
     </row>
     <row r="1185" spans="1:2">
-      <c r="B1185" s="70"/>
+      <c r="A1185" s="27"/>
+      <c r="B1185" s="39"/>
     </row>
     <row r="1186" spans="1:2">
       <c r="A1186" s="27"/>
-      <c r="B1186" s="39"/>
-    </row>
-    <row r="1187" spans="1:2">
-      <c r="A1187" s="27"/>
-      <c r="B1187" s="71"/>
+      <c r="B1186" s="71"/>
+    </row>
+    <row r="1188" spans="1:2">
+      <c r="B1188" s="71"/>
     </row>
     <row r="1189" spans="1:2">
       <c r="B1189" s="71"/>
@@ -6231,28 +6379,29 @@
       <c r="B1193" s="71"/>
     </row>
     <row r="1194" spans="1:2">
+      <c r="A1194" s="27"/>
       <c r="B1194" s="71"/>
     </row>
-    <row r="1195" spans="1:2">
-      <c r="A1195" s="27"/>
-      <c r="B1195" s="71"/>
+    <row r="1196" spans="1:2">
+      <c r="A1196" s="27"/>
     </row>
     <row r="1197" spans="1:2">
       <c r="A1197" s="27"/>
+      <c r="B1197" s="71"/>
     </row>
     <row r="1198" spans="1:2">
-      <c r="A1198" s="27"/>
-      <c r="B1198" s="71"/>
+      <c r="A1198" s="9"/>
+      <c r="B1198" s="72"/>
     </row>
     <row r="1199" spans="1:2">
-      <c r="A1199" s="9"/>
-      <c r="B1199" s="72"/>
+      <c r="B1199" s="40"/>
     </row>
     <row r="1200" spans="1:2">
-      <c r="B1200" s="40"/>
+      <c r="B1200" s="39"/>
     </row>
     <row r="1201" spans="1:2">
-      <c r="B1201" s="39"/>
+      <c r="A1201" s="28"/>
+      <c r="B1201" s="70"/>
     </row>
     <row r="1202" spans="1:2">
       <c r="A1202" s="28"/>
@@ -6263,17 +6412,16 @@
       <c r="B1203" s="70"/>
     </row>
     <row r="1204" spans="1:2">
-      <c r="A1204" s="28"/>
       <c r="B1204" s="70"/>
     </row>
     <row r="1205" spans="1:2">
       <c r="B1205" s="70"/>
     </row>
     <row r="1206" spans="1:2">
+      <c r="A1206" s="28"/>
       <c r="B1206" s="70"/>
     </row>
     <row r="1207" spans="1:2">
-      <c r="A1207" s="28"/>
       <c r="B1207" s="70"/>
     </row>
     <row r="1208" spans="1:2">
@@ -6313,13 +6461,13 @@
       <c r="B1219" s="70"/>
     </row>
     <row r="1220" spans="1:2">
-      <c r="B1220" s="70"/>
+      <c r="B1220" s="39"/>
     </row>
     <row r="1221" spans="1:2">
-      <c r="B1221" s="39"/>
+      <c r="A1221" s="28"/>
+      <c r="B1221" s="70"/>
     </row>
     <row r="1222" spans="1:2">
-      <c r="A1222" s="28"/>
       <c r="B1222" s="70"/>
     </row>
     <row r="1223" spans="1:2">
@@ -6331,11 +6479,11 @@
     <row r="1225" spans="1:2">
       <c r="B1225" s="70"/>
     </row>
-    <row r="1226" spans="1:2">
-      <c r="B1226" s="70"/>
+    <row r="1227" spans="1:2">
+      <c r="A1227" s="28"/>
+      <c r="B1227" s="70"/>
     </row>
     <row r="1228" spans="1:2">
-      <c r="A1228" s="28"/>
       <c r="B1228" s="70"/>
     </row>
     <row r="1229" spans="1:2">
@@ -6351,10 +6499,10 @@
       <c r="B1232" s="70"/>
     </row>
     <row r="1233" spans="1:2">
+      <c r="A1233" s="28"/>
       <c r="B1233" s="70"/>
     </row>
     <row r="1234" spans="1:2">
-      <c r="A1234" s="28"/>
       <c r="B1234" s="70"/>
     </row>
     <row r="1235" spans="1:2">
@@ -6399,8 +6547,8 @@
     <row r="1248" spans="1:2">
       <c r="B1248" s="70"/>
     </row>
-    <row r="1249" spans="2:2">
-      <c r="B1249" s="70"/>
+    <row r="1250" spans="2:2">
+      <c r="B1250" s="70"/>
     </row>
     <row r="1251" spans="2:2">
       <c r="B1251" s="70"/>
@@ -6409,16 +6557,16 @@
       <c r="B1252" s="70"/>
     </row>
     <row r="1253" spans="2:2">
-      <c r="B1253" s="70"/>
+      <c r="B1253" s="73"/>
     </row>
     <row r="1254" spans="2:2">
-      <c r="B1254" s="73"/>
+      <c r="B1254" s="70"/>
     </row>
     <row r="1255" spans="2:2">
-      <c r="B1255" s="70"/>
+      <c r="B1255" s="40"/>
     </row>
     <row r="1256" spans="2:2">
-      <c r="B1256" s="40"/>
+      <c r="B1256" s="70"/>
     </row>
     <row r="1257" spans="2:2">
       <c r="B1257" s="70"/>
@@ -6448,10 +6596,10 @@
       <c r="B1265" s="70"/>
     </row>
     <row r="1266" spans="1:2">
+      <c r="A1266" s="28"/>
       <c r="B1266" s="70"/>
     </row>
     <row r="1267" spans="1:2">
-      <c r="A1267" s="28"/>
       <c r="B1267" s="70"/>
     </row>
     <row r="1268" spans="1:2">
@@ -6473,10 +6621,10 @@
       <c r="B1273" s="70"/>
     </row>
     <row r="1274" spans="1:2">
-      <c r="B1274" s="70"/>
+      <c r="B1274" s="39"/>
     </row>
     <row r="1275" spans="1:2">
-      <c r="B1275" s="39"/>
+      <c r="B1275" s="70"/>
     </row>
     <row r="1276" spans="1:2">
       <c r="B1276" s="70"/>
@@ -6563,16 +6711,16 @@
       <c r="B1303" s="70"/>
     </row>
     <row r="1304" spans="1:2">
-      <c r="B1304" s="70"/>
+      <c r="B1304" s="39"/>
     </row>
     <row r="1305" spans="1:2">
-      <c r="B1305" s="39"/>
-    </row>
-    <row r="1306" spans="1:2">
-      <c r="B1306" s="70"/>
+      <c r="B1305" s="70"/>
+    </row>
+    <row r="1307" spans="1:2">
+      <c r="A1307" s="29"/>
+      <c r="B1307" s="74"/>
     </row>
     <row r="1308" spans="1:2">
-      <c r="A1308" s="29"/>
       <c r="B1308" s="74"/>
     </row>
     <row r="1309" spans="1:2">
@@ -6582,81 +6730,81 @@
       <c r="B1310" s="74"/>
     </row>
     <row r="1311" spans="1:2">
-      <c r="B1311" s="74"/>
+      <c r="A1311" s="30"/>
+      <c r="B1311" s="60"/>
     </row>
     <row r="1312" spans="1:2">
-      <c r="A1312" s="30"/>
-      <c r="B1312" s="60"/>
+      <c r="A1312" s="31"/>
+      <c r="B1312" s="75"/>
     </row>
     <row r="1313" spans="1:2">
       <c r="A1313" s="31"/>
       <c r="B1313" s="75"/>
     </row>
-    <row r="1314" spans="1:2">
-      <c r="A1314" s="31"/>
-      <c r="B1314" s="75"/>
-    </row>
-    <row r="1317" spans="1:2">
-      <c r="A1317" s="32"/>
-    </row>
-    <row r="1342" spans="2:2">
-      <c r="B1342" s="76"/>
-    </row>
-    <row r="1347" spans="1:2">
-      <c r="B1347" s="77"/>
-    </row>
-    <row r="1351" spans="1:2">
-      <c r="B1351" s="76"/>
+    <row r="1316" spans="1:2">
+      <c r="A1316" s="32"/>
+    </row>
+    <row r="1341" spans="2:2">
+      <c r="B1341" s="76"/>
+    </row>
+    <row r="1346" spans="1:2">
+      <c r="B1346" s="77"/>
+    </row>
+    <row r="1350" spans="1:2">
+      <c r="B1350" s="76"/>
+    </row>
+    <row r="1353" spans="1:2">
+      <c r="B1353" s="76"/>
     </row>
     <row r="1354" spans="1:2">
       <c r="B1354" s="76"/>
     </row>
-    <row r="1355" spans="1:2">
-      <c r="B1355" s="76"/>
+    <row r="1358" spans="1:2">
+      <c r="B1358" s="76"/>
     </row>
     <row r="1359" spans="1:2">
+      <c r="A1359" s="32"/>
       <c r="B1359" s="76"/>
     </row>
-    <row r="1360" spans="1:2">
-      <c r="A1360" s="32"/>
-      <c r="B1360" s="76"/>
-    </row>
-    <row r="1363" spans="1:2">
-      <c r="B1363" s="76"/>
+    <row r="1362" spans="1:2">
+      <c r="B1362" s="76"/>
+    </row>
+    <row r="1367" spans="1:2">
+      <c r="B1367" s="76"/>
     </row>
     <row r="1368" spans="1:2">
       <c r="B1368" s="76"/>
     </row>
     <row r="1369" spans="1:2">
-      <c r="B1369" s="76"/>
+      <c r="A1369" s="32"/>
     </row>
     <row r="1370" spans="1:2">
-      <c r="A1370" s="32"/>
-    </row>
-    <row r="1371" spans="1:2">
-      <c r="B1371" s="76"/>
-    </row>
-    <row r="1376" spans="1:2">
-      <c r="B1376" s="76"/>
-    </row>
-    <row r="1383" spans="1:2">
-      <c r="B1383" s="76"/>
+      <c r="B1370" s="76"/>
+    </row>
+    <row r="1375" spans="1:2">
+      <c r="B1375" s="76"/>
+    </row>
+    <row r="1382" spans="1:2">
+      <c r="B1382" s="76"/>
+    </row>
+    <row r="1389" spans="1:2">
+      <c r="A1389" s="35"/>
+      <c r="B1389" s="78"/>
     </row>
     <row r="1390" spans="1:2">
-      <c r="A1390" s="35"/>
-      <c r="B1390" s="78"/>
+      <c r="A1390" s="33"/>
+      <c r="B1390" s="79"/>
     </row>
     <row r="1391" spans="1:2">
-      <c r="A1391" s="33"/>
-      <c r="B1391" s="79"/>
+      <c r="A1391" s="34"/>
+      <c r="B1391" s="80"/>
     </row>
     <row r="1392" spans="1:2">
       <c r="A1392" s="34"/>
       <c r="B1392" s="80"/>
     </row>
     <row r="1393" spans="1:2">
-      <c r="A1393" s="34"/>
-      <c r="B1393" s="80"/>
+      <c r="B1393" s="78"/>
     </row>
     <row r="1394" spans="1:2">
       <c r="B1394" s="78"/>
@@ -6674,10 +6822,10 @@
       <c r="B1398" s="78"/>
     </row>
     <row r="1399" spans="1:2">
-      <c r="B1399" s="78"/>
+      <c r="A1399" s="36"/>
     </row>
     <row r="1400" spans="1:2">
-      <c r="A1400" s="36"/>
+      <c r="A1400" s="24"/>
     </row>
     <row r="1401" spans="1:2">
       <c r="A1401" s="24"/>
@@ -6690,6 +6838,7 @@
     </row>
     <row r="1404" spans="1:2">
       <c r="A1404" s="24"/>
+      <c r="B1404" s="36"/>
     </row>
     <row r="1405" spans="1:2">
       <c r="A1405" s="24"/>
@@ -6701,13 +6850,12 @@
     </row>
     <row r="1407" spans="1:2">
       <c r="A1407" s="24"/>
-      <c r="B1407" s="36"/>
     </row>
     <row r="1408" spans="1:2">
-      <c r="A1408" s="24"/>
+      <c r="A1408" s="36"/>
     </row>
     <row r="1409" spans="1:2">
-      <c r="A1409" s="36"/>
+      <c r="A1409" s="24"/>
     </row>
     <row r="1410" spans="1:2">
       <c r="A1410" s="24"/>
@@ -6716,29 +6864,29 @@
       <c r="A1411" s="24"/>
     </row>
     <row r="1412" spans="1:2">
-      <c r="A1412" s="24"/>
+      <c r="A1412" s="36"/>
+      <c r="B1412" s="36"/>
     </row>
     <row r="1413" spans="1:2">
       <c r="A1413" s="36"/>
       <c r="B1413" s="36"/>
     </row>
     <row r="1414" spans="1:2">
-      <c r="A1414" s="36"/>
+      <c r="A1414" s="24"/>
       <c r="B1414" s="36"/>
     </row>
     <row r="1415" spans="1:2">
       <c r="A1415" s="24"/>
-      <c r="B1415" s="36"/>
     </row>
     <row r="1416" spans="1:2">
       <c r="A1416" s="24"/>
     </row>
     <row r="1417" spans="1:2">
       <c r="A1417" s="24"/>
+      <c r="B1417" s="36"/>
     </row>
     <row r="1418" spans="1:2">
       <c r="A1418" s="24"/>
-      <c r="B1418" s="36"/>
     </row>
     <row r="1419" spans="1:2">
       <c r="A1419" s="24"/>
@@ -6748,13 +6896,14 @@
     </row>
     <row r="1421" spans="1:2">
       <c r="A1421" s="24"/>
+      <c r="B1421" s="36"/>
     </row>
     <row r="1422" spans="1:2">
       <c r="A1422" s="24"/>
-      <c r="B1422" s="36"/>
     </row>
     <row r="1423" spans="1:2">
       <c r="A1423" s="24"/>
+      <c r="B1423" s="36"/>
     </row>
     <row r="1424" spans="1:2">
       <c r="A1424" s="24"/>
@@ -6762,7 +6911,6 @@
     </row>
     <row r="1425" spans="1:2">
       <c r="A1425" s="24"/>
-      <c r="B1425" s="36"/>
     </row>
     <row r="1426" spans="1:2">
       <c r="A1426" s="24"/>
@@ -6786,11 +6934,11 @@
       <c r="A1432" s="24"/>
     </row>
     <row r="1433" spans="1:2">
-      <c r="A1433" s="24"/>
+      <c r="A1433" s="36"/>
+      <c r="B1433" s="36"/>
     </row>
     <row r="1434" spans="1:2">
-      <c r="A1434" s="36"/>
-      <c r="B1434" s="36"/>
+      <c r="A1434" s="24"/>
     </row>
     <row r="1435" spans="1:2">
       <c r="A1435" s="24"/>
@@ -6800,52 +6948,52 @@
     </row>
     <row r="1437" spans="1:2">
       <c r="A1437" s="24"/>
+      <c r="B1437" s="36"/>
     </row>
     <row r="1438" spans="1:2">
       <c r="A1438" s="24"/>
-      <c r="B1438" s="36"/>
     </row>
     <row r="1439" spans="1:2">
       <c r="A1439" s="24"/>
     </row>
     <row r="1440" spans="1:2">
       <c r="A1440" s="24"/>
+      <c r="B1440" s="36"/>
     </row>
     <row r="1441" spans="1:2">
-      <c r="A1441" s="24"/>
+      <c r="A1441" s="41"/>
       <c r="B1441" s="36"/>
     </row>
     <row r="1442" spans="1:2">
-      <c r="A1442" s="41"/>
+      <c r="A1442" s="36"/>
       <c r="B1442" s="36"/>
     </row>
     <row r="1443" spans="1:2">
-      <c r="A1443" s="36"/>
-      <c r="B1443" s="36"/>
+      <c r="A1443" s="24"/>
     </row>
     <row r="1444" spans="1:2">
       <c r="A1444" s="24"/>
+      <c r="B1444" s="36"/>
     </row>
     <row r="1445" spans="1:2">
       <c r="A1445" s="24"/>
-      <c r="B1445" s="36"/>
     </row>
     <row r="1446" spans="1:2">
-      <c r="A1446" s="24"/>
+      <c r="A1446" s="36"/>
+      <c r="B1446" s="36"/>
     </row>
     <row r="1447" spans="1:2">
-      <c r="A1447" s="36"/>
-      <c r="B1447" s="36"/>
+      <c r="A1447" s="24"/>
     </row>
     <row r="1448" spans="1:2">
       <c r="A1448" s="24"/>
     </row>
     <row r="1449" spans="1:2">
       <c r="A1449" s="24"/>
+      <c r="B1449" s="36"/>
     </row>
     <row r="1450" spans="1:2">
       <c r="A1450" s="24"/>
-      <c r="B1450" s="36"/>
     </row>
     <row r="1451" spans="1:2">
       <c r="A1451" s="24"/>
@@ -6858,22 +7006,23 @@
     </row>
     <row r="1454" spans="1:2">
       <c r="A1454" s="24"/>
+      <c r="B1454" s="36"/>
     </row>
     <row r="1455" spans="1:2">
       <c r="A1455" s="24"/>
-      <c r="B1455" s="36"/>
     </row>
     <row r="1456" spans="1:2">
-      <c r="A1456" s="24"/>
+      <c r="A1456" s="36"/>
     </row>
     <row r="1457" spans="1:2">
-      <c r="A1457" s="36"/>
+      <c r="A1457" s="24"/>
     </row>
     <row r="1458" spans="1:2">
       <c r="A1458" s="24"/>
     </row>
     <row r="1459" spans="1:2">
       <c r="A1459" s="24"/>
+      <c r="B1459" s="36"/>
     </row>
     <row r="1460" spans="1:2">
       <c r="A1460" s="24"/>
@@ -6881,7 +7030,6 @@
     </row>
     <row r="1461" spans="1:2">
       <c r="A1461" s="24"/>
-      <c r="B1461" s="36"/>
     </row>
     <row r="1462" spans="1:2">
       <c r="A1462" s="24"/>
@@ -7281,6 +7429,7 @@
     </row>
     <row r="1594" spans="1:2">
       <c r="A1594" s="24"/>
+      <c r="B1594" s="42"/>
     </row>
     <row r="1595" spans="1:2">
       <c r="A1595" s="24"/>
@@ -7296,29 +7445,29 @@
     </row>
     <row r="1598" spans="1:2">
       <c r="A1598" s="24"/>
-      <c r="B1598" s="42"/>
     </row>
     <row r="1599" spans="1:2">
       <c r="A1599" s="24"/>
+      <c r="B1599" s="42"/>
     </row>
     <row r="1600" spans="1:2">
       <c r="A1600" s="24"/>
       <c r="B1600" s="42"/>
     </row>
     <row r="1601" spans="1:2">
-      <c r="A1601" s="24"/>
+      <c r="A1601" s="42"/>
       <c r="B1601" s="42"/>
     </row>
     <row r="1602" spans="1:2">
-      <c r="A1602" s="42"/>
+      <c r="A1602" s="24"/>
       <c r="B1602" s="42"/>
     </row>
     <row r="1603" spans="1:2">
-      <c r="A1603" s="24"/>
+      <c r="A1603" s="42"/>
       <c r="B1603" s="42"/>
     </row>
     <row r="1604" spans="1:2">
-      <c r="A1604" s="42"/>
+      <c r="A1604" s="24"/>
       <c r="B1604" s="42"/>
     </row>
     <row r="1605" spans="1:2">
@@ -7338,11 +7487,11 @@
       <c r="B1608" s="42"/>
     </row>
     <row r="1609" spans="1:2">
-      <c r="A1609" s="24"/>
+      <c r="A1609" s="42"/>
       <c r="B1609" s="42"/>
     </row>
     <row r="1610" spans="1:2">
-      <c r="A1610" s="42"/>
+      <c r="A1610" s="24"/>
       <c r="B1610" s="42"/>
     </row>
     <row r="1611" spans="1:2">
@@ -7359,10 +7508,10 @@
     </row>
     <row r="1614" spans="1:2">
       <c r="A1614" s="24"/>
-      <c r="B1614" s="42"/>
     </row>
     <row r="1615" spans="1:2">
       <c r="A1615" s="24"/>
+      <c r="B1615" s="42"/>
     </row>
     <row r="1616" spans="1:2">
       <c r="A1616" s="24"/>
@@ -7378,13 +7527,13 @@
     </row>
     <row r="1619" spans="1:2">
       <c r="A1619" s="24"/>
-      <c r="B1619" s="42"/>
     </row>
     <row r="1620" spans="1:2">
       <c r="A1620" s="24"/>
     </row>
     <row r="1621" spans="1:2">
       <c r="A1621" s="24"/>
+      <c r="B1621" s="42"/>
     </row>
     <row r="1622" spans="1:2">
       <c r="A1622" s="24"/>
@@ -7432,10 +7581,10 @@
     </row>
     <row r="1633" spans="1:2">
       <c r="A1633" s="24"/>
-      <c r="B1633" s="42"/>
     </row>
     <row r="1634" spans="1:2">
       <c r="A1634" s="24"/>
+      <c r="B1634" s="42"/>
     </row>
     <row r="1635" spans="1:2">
       <c r="A1635" s="24"/>
@@ -7454,11 +7603,11 @@
       <c r="B1638" s="42"/>
     </row>
     <row r="1639" spans="1:2">
-      <c r="A1639" s="24"/>
+      <c r="A1639" s="42"/>
       <c r="B1639" s="42"/>
     </row>
     <row r="1640" spans="1:2">
-      <c r="A1640" s="42"/>
+      <c r="A1640" s="24"/>
       <c r="B1640" s="42"/>
     </row>
     <row r="1641" spans="1:2">
@@ -7478,11 +7627,11 @@
       <c r="B1644" s="42"/>
     </row>
     <row r="1645" spans="1:2">
-      <c r="A1645" s="24"/>
+      <c r="A1645" s="42"/>
       <c r="B1645" s="42"/>
     </row>
     <row r="1646" spans="1:2">
-      <c r="A1646" s="42"/>
+      <c r="A1646" s="24"/>
       <c r="B1646" s="42"/>
     </row>
     <row r="1647" spans="1:2">
@@ -7518,19 +7667,18 @@
       <c r="B1654" s="42"/>
     </row>
     <row r="1655" spans="1:2">
-      <c r="A1655" s="24"/>
+      <c r="A1655" s="42"/>
       <c r="B1655" s="42"/>
     </row>
     <row r="1656" spans="1:2">
-      <c r="A1656" s="42"/>
-      <c r="B1656" s="42"/>
+      <c r="A1656" s="24"/>
     </row>
     <row r="1657" spans="1:2">
       <c r="A1657" s="24"/>
+      <c r="B1657" s="44"/>
     </row>
     <row r="1658" spans="1:2">
       <c r="A1658" s="24"/>
-      <c r="B1658" s="44"/>
     </row>
     <row r="1659" spans="1:2">
       <c r="A1659" s="24"/>
@@ -7581,80 +7729,80 @@
       <c r="A1674" s="24"/>
     </row>
     <row r="1675" spans="1:2">
-      <c r="A1675" s="24"/>
+      <c r="A1675" s="36"/>
+      <c r="B1675" s="36"/>
     </row>
     <row r="1676" spans="1:2">
-      <c r="A1676" s="36"/>
-      <c r="B1676" s="36"/>
+      <c r="A1676" s="24"/>
     </row>
     <row r="1677" spans="1:2">
       <c r="A1677" s="24"/>
+      <c r="B1677" s="44"/>
     </row>
     <row r="1678" spans="1:2">
       <c r="A1678" s="24"/>
-      <c r="B1678" s="44"/>
     </row>
     <row r="1679" spans="1:2">
       <c r="A1679" s="24"/>
     </row>
-    <row r="1680" spans="1:2">
-      <c r="A1680" s="24"/>
-    </row>
-    <row r="1689" spans="1:2">
-      <c r="B1689" s="44"/>
-    </row>
-    <row r="1692" spans="1:2">
-      <c r="A1692" s="43"/>
-      <c r="B1692" s="44"/>
-    </row>
-    <row r="1694" spans="1:2">
-      <c r="B1694" s="81"/>
-    </row>
-    <row r="1699" spans="2:2">
-      <c r="B1699" s="81"/>
-    </row>
-    <row r="1705" spans="2:2">
-      <c r="B1705" s="44"/>
-    </row>
-    <row r="1710" spans="2:2">
-      <c r="B1710" s="44"/>
-    </row>
-    <row r="1712" spans="2:2">
-      <c r="B1712" s="44"/>
-    </row>
-    <row r="1716" spans="2:2">
-      <c r="B1716" s="48"/>
-    </row>
-    <row r="1734" spans="2:2">
-      <c r="B1734" s="48"/>
-    </row>
-    <row r="1745" spans="2:2">
-      <c r="B1745" s="48"/>
-    </row>
-    <row r="1765" spans="2:2">
-      <c r="B1765" s="48"/>
+    <row r="1688" spans="1:2">
+      <c r="B1688" s="44"/>
+    </row>
+    <row r="1691" spans="1:2">
+      <c r="A1691" s="43"/>
+      <c r="B1691" s="44"/>
+    </row>
+    <row r="1693" spans="1:2">
+      <c r="B1693" s="81"/>
+    </row>
+    <row r="1698" spans="2:2">
+      <c r="B1698" s="81"/>
+    </row>
+    <row r="1704" spans="2:2">
+      <c r="B1704" s="44"/>
+    </row>
+    <row r="1709" spans="2:2">
+      <c r="B1709" s="44"/>
+    </row>
+    <row r="1711" spans="2:2">
+      <c r="B1711" s="44"/>
+    </row>
+    <row r="1715" spans="2:2">
+      <c r="B1715" s="48"/>
+    </row>
+    <row r="1733" spans="2:2">
+      <c r="B1733" s="48"/>
+    </row>
+    <row r="1744" spans="2:2">
+      <c r="B1744" s="48"/>
+    </row>
+    <row r="1764" spans="2:2">
+      <c r="B1764" s="48"/>
+    </row>
+    <row r="1774" spans="2:2">
+      <c r="B1774" s="53"/>
     </row>
     <row r="1775" spans="2:2">
       <c r="B1775" s="53"/>
     </row>
-    <row r="1776" spans="2:2">
-      <c r="B1776" s="53"/>
+    <row r="1777" spans="1:2">
+      <c r="B1777" s="53"/>
     </row>
     <row r="1778" spans="1:2">
       <c r="B1778" s="53"/>
     </row>
-    <row r="1779" spans="1:2">
-      <c r="B1779" s="53"/>
+    <row r="1781" spans="1:2">
+      <c r="B1781" s="53"/>
     </row>
     <row r="1782" spans="1:2">
+      <c r="A1782" s="45"/>
       <c r="B1782" s="53"/>
     </row>
-    <row r="1783" spans="1:2">
-      <c r="A1783" s="45"/>
-      <c r="B1783" s="53"/>
-    </row>
-    <row r="1785" spans="1:2">
-      <c r="B1785" s="53"/>
+    <row r="1784" spans="1:2">
+      <c r="B1784" s="53"/>
+    </row>
+    <row r="1788" spans="1:2">
+      <c r="B1788" s="53"/>
     </row>
     <row r="1789" spans="1:2">
       <c r="B1789" s="53"/>
@@ -7662,95 +7810,95 @@
     <row r="1790" spans="1:2">
       <c r="B1790" s="53"/>
     </row>
-    <row r="1791" spans="1:2">
-      <c r="B1791" s="53"/>
-    </row>
-    <row r="1796" spans="2:2">
-      <c r="B1796" s="53"/>
-    </row>
-    <row r="1798" spans="2:2">
-      <c r="B1798" s="53"/>
-    </row>
-    <row r="1807" spans="2:2">
-      <c r="B1807" s="53"/>
-    </row>
-    <row r="1810" spans="2:2">
-      <c r="B1810" s="53"/>
+    <row r="1795" spans="2:2">
+      <c r="B1795" s="53"/>
+    </row>
+    <row r="1797" spans="2:2">
+      <c r="B1797" s="53"/>
+    </row>
+    <row r="1806" spans="2:2">
+      <c r="B1806" s="53"/>
+    </row>
+    <row r="1809" spans="2:2">
+      <c r="B1809" s="53"/>
+    </row>
+    <row r="1816" spans="2:2">
+      <c r="B1816" s="53"/>
     </row>
     <row r="1817" spans="2:2">
       <c r="B1817" s="53"/>
     </row>
-    <row r="1818" spans="2:2">
-      <c r="B1818" s="53"/>
-    </row>
-    <row r="1820" spans="2:2">
-      <c r="B1820" s="53"/>
-    </row>
-    <row r="1822" spans="2:2">
-      <c r="B1822" s="53"/>
+    <row r="1819" spans="2:2">
+      <c r="B1819" s="53"/>
+    </row>
+    <row r="1821" spans="2:2">
+      <c r="B1821" s="53"/>
+    </row>
+    <row r="1833" spans="1:2">
+      <c r="B1833" s="53"/>
     </row>
     <row r="1834" spans="1:2">
       <c r="B1834" s="53"/>
     </row>
     <row r="1835" spans="1:2">
+      <c r="A1835" s="45"/>
       <c r="B1835" s="53"/>
     </row>
-    <row r="1836" spans="1:2">
-      <c r="A1836" s="45"/>
-      <c r="B1836" s="53"/>
+    <row r="1842" spans="1:2">
+      <c r="B1842" s="53"/>
     </row>
     <row r="1843" spans="1:2">
       <c r="B1843" s="53"/>
     </row>
-    <row r="1844" spans="1:2">
-      <c r="B1844" s="53"/>
-    </row>
-    <row r="1853" spans="1:2">
-      <c r="A1853" s="45"/>
-    </row>
-    <row r="1856" spans="1:2">
-      <c r="B1856" s="53"/>
-    </row>
-    <row r="1867" spans="2:2">
-      <c r="B1867" s="53"/>
-    </row>
-    <row r="1869" spans="2:2">
-      <c r="B1869" s="53"/>
+    <row r="1852" spans="1:2">
+      <c r="A1852" s="45"/>
+    </row>
+    <row r="1855" spans="1:2">
+      <c r="B1855" s="53"/>
+    </row>
+    <row r="1866" spans="2:2">
+      <c r="B1866" s="53"/>
+    </row>
+    <row r="1868" spans="2:2">
+      <c r="B1868" s="53"/>
+    </row>
+    <row r="1870" spans="2:2">
+      <c r="B1870" s="53"/>
     </row>
     <row r="1871" spans="2:2">
       <c r="B1871" s="53"/>
     </row>
-    <row r="1872" spans="2:2">
-      <c r="B1872" s="53"/>
-    </row>
-    <row r="1874" spans="1:2">
-      <c r="A1874" s="45"/>
-      <c r="B1874" s="53"/>
-    </row>
-    <row r="1878" spans="1:2">
-      <c r="B1878" s="53"/>
-    </row>
-    <row r="1882" spans="1:2">
-      <c r="B1882" s="53"/>
-    </row>
-    <row r="1884" spans="1:2">
-      <c r="B1884" s="53"/>
+    <row r="1873" spans="1:2">
+      <c r="A1873" s="45"/>
+      <c r="B1873" s="53"/>
+    </row>
+    <row r="1877" spans="1:2">
+      <c r="B1877" s="53"/>
+    </row>
+    <row r="1881" spans="1:2">
+      <c r="B1881" s="53"/>
+    </row>
+    <row r="1883" spans="1:2">
+      <c r="B1883" s="53"/>
+    </row>
+    <row r="1889" spans="1:2">
+      <c r="B1889" s="53"/>
     </row>
     <row r="1890" spans="1:2">
+      <c r="A1890" s="45"/>
       <c r="B1890" s="53"/>
     </row>
     <row r="1891" spans="1:2">
-      <c r="A1891" s="45"/>
       <c r="B1891" s="53"/>
     </row>
-    <row r="1892" spans="1:2">
-      <c r="B1892" s="53"/>
-    </row>
-    <row r="1899" spans="1:2">
-      <c r="B1899" s="53"/>
-    </row>
-    <row r="1901" spans="1:2">
-      <c r="B1901" s="53"/>
+    <row r="1898" spans="1:2">
+      <c r="B1898" s="53"/>
+    </row>
+    <row r="1900" spans="1:2">
+      <c r="B1900" s="53"/>
+    </row>
+    <row r="1910" spans="1:2">
+      <c r="B1910" s="82"/>
     </row>
     <row r="1911" spans="1:2">
       <c r="B1911" s="82"/>
@@ -7759,13 +7907,14 @@
       <c r="B1912" s="82"/>
     </row>
     <row r="1913" spans="1:2">
+      <c r="A1913" s="83"/>
       <c r="B1913" s="82"/>
     </row>
     <row r="1914" spans="1:2">
-      <c r="A1914" s="83"/>
       <c r="B1914" s="82"/>
     </row>
     <row r="1915" spans="1:2">
+      <c r="A1915" s="24"/>
       <c r="B1915" s="82"/>
     </row>
     <row r="1916" spans="1:2">
@@ -7790,13 +7939,12 @@
     </row>
     <row r="1921" spans="1:2">
       <c r="A1921" s="24"/>
-      <c r="B1921" s="82"/>
     </row>
     <row r="1922" spans="1:2">
       <c r="A1922" s="24"/>
     </row>
     <row r="1923" spans="1:2">
-      <c r="A1923" s="24"/>
+      <c r="B1923" s="82"/>
     </row>
     <row r="1924" spans="1:2">
       <c r="B1924" s="82"/>
@@ -7850,20 +7998,20 @@
       <c r="B1940" s="82"/>
     </row>
     <row r="1941" spans="1:2">
-      <c r="B1941" s="82"/>
+      <c r="A1941" s="83"/>
+      <c r="B1941" s="86"/>
     </row>
     <row r="1942" spans="1:2">
-      <c r="A1942" s="83"/>
-      <c r="B1942" s="86"/>
+      <c r="B1942" s="82"/>
     </row>
     <row r="1943" spans="1:2">
       <c r="B1943" s="82"/>
     </row>
-    <row r="1944" spans="1:2">
-      <c r="B1944" s="82"/>
-    </row>
-    <row r="1946" spans="1:2">
-      <c r="B1946" s="82"/>
+    <row r="1945" spans="1:2">
+      <c r="B1945" s="82"/>
+    </row>
+    <row r="1947" spans="1:2">
+      <c r="B1947" s="82"/>
     </row>
     <row r="1948" spans="1:2">
       <c r="B1948" s="82"/>
@@ -7872,10 +8020,10 @@
       <c r="B1949" s="82"/>
     </row>
     <row r="1950" spans="1:2">
+      <c r="A1950" s="83"/>
       <c r="B1950" s="82"/>
     </row>
     <row r="1951" spans="1:2">
-      <c r="A1951" s="83"/>
       <c r="B1951" s="82"/>
     </row>
     <row r="1952" spans="1:2">
@@ -7924,17 +8072,17 @@
       <c r="B1966" s="82"/>
     </row>
     <row r="1967" spans="1:2">
-      <c r="B1967" s="82"/>
-    </row>
-    <row r="1968" spans="1:2">
-      <c r="A1968" s="84"/>
-      <c r="B1968" s="85"/>
+      <c r="A1967" s="84"/>
+      <c r="B1967" s="85"/>
+    </row>
+    <row r="1969" spans="2:2">
+      <c r="B1969" s="86"/>
     </row>
     <row r="1970" spans="2:2">
       <c r="B1970" s="86"/>
     </row>
-    <row r="1971" spans="2:2">
-      <c r="B1971" s="86"/>
+    <row r="1973" spans="2:2">
+      <c r="B1973" s="86"/>
     </row>
     <row r="1974" spans="2:2">
       <c r="B1974" s="86"/>
@@ -7945,44 +8093,44 @@
     <row r="1976" spans="2:2">
       <c r="B1976" s="86"/>
     </row>
-    <row r="1977" spans="2:2">
-      <c r="B1977" s="86"/>
+    <row r="1978" spans="2:2">
+      <c r="B1978" s="86"/>
     </row>
     <row r="1979" spans="2:2">
       <c r="B1979" s="86"/>
     </row>
-    <row r="1980" spans="2:2">
-      <c r="B1980" s="86"/>
-    </row>
-    <row r="1982" spans="2:2">
-      <c r="B1982" s="86"/>
+    <row r="1981" spans="2:2">
+      <c r="B1981" s="86"/>
+    </row>
+    <row r="1984" spans="2:2">
+      <c r="B1984" s="86"/>
     </row>
     <row r="1985" spans="2:2">
       <c r="B1985" s="86"/>
     </row>
-    <row r="1986" spans="2:2">
-      <c r="B1986" s="86"/>
+    <row r="1987" spans="2:2">
+      <c r="B1987" s="86"/>
     </row>
     <row r="1988" spans="2:2">
       <c r="B1988" s="86"/>
     </row>
-    <row r="1989" spans="2:2">
-      <c r="B1989" s="86"/>
-    </row>
-    <row r="1991" spans="2:2">
-      <c r="B1991" s="86"/>
+    <row r="1990" spans="2:2">
+      <c r="B1990" s="86"/>
+    </row>
+    <row r="1995" spans="2:2">
+      <c r="B1995" s="86"/>
     </row>
     <row r="1996" spans="2:2">
       <c r="B1996" s="86"/>
     </row>
-    <row r="1997" spans="2:2">
-      <c r="B1997" s="86"/>
-    </row>
-    <row r="1999" spans="2:2">
-      <c r="B1999" s="86"/>
-    </row>
-    <row r="2001" spans="1:2">
-      <c r="B2001" s="86"/>
+    <row r="1998" spans="2:2">
+      <c r="B1998" s="86"/>
+    </row>
+    <row r="2000" spans="2:2">
+      <c r="B2000" s="86"/>
+    </row>
+    <row r="2002" spans="1:2">
+      <c r="B2002" s="86"/>
     </row>
     <row r="2003" spans="1:2">
       <c r="B2003" s="86"/>
@@ -7993,17 +8141,18 @@
     <row r="2005" spans="1:2">
       <c r="B2005" s="86"/>
     </row>
-    <row r="2006" spans="1:2">
-      <c r="B2006" s="86"/>
-    </row>
-    <row r="2009" spans="1:2">
-      <c r="B2009" s="86"/>
+    <row r="2008" spans="1:2">
+      <c r="B2008" s="86"/>
+    </row>
+    <row r="2010" spans="1:2">
+      <c r="B2010" s="86"/>
     </row>
     <row r="2011" spans="1:2">
       <c r="B2011" s="86"/>
     </row>
     <row r="2012" spans="1:2">
-      <c r="B2012" s="86"/>
+      <c r="A2012" s="87"/>
+      <c r="B2012" s="88"/>
     </row>
     <row r="2013" spans="1:2">
       <c r="A2013" s="87"/>
@@ -8034,27 +8183,27 @@
       <c r="B2019" s="88"/>
     </row>
     <row r="2020" spans="1:2">
-      <c r="A2020" s="87"/>
-      <c r="B2020" s="88"/>
+      <c r="A2020" s="90"/>
+      <c r="B2020" s="89"/>
     </row>
     <row r="2021" spans="1:2">
-      <c r="A2021" s="90"/>
-      <c r="B2021" s="89"/>
-    </row>
-    <row r="2022" spans="1:2">
-      <c r="A2022" s="91"/>
-      <c r="B2022" s="91"/>
-    </row>
-    <row r="2024" spans="1:2">
-      <c r="A2024" s="90"/>
-      <c r="B2024" s="91"/>
+      <c r="A2021" s="91"/>
+      <c r="B2021" s="91"/>
+    </row>
+    <row r="2023" spans="1:2">
+      <c r="A2023" s="90"/>
+      <c r="B2023" s="91"/>
+    </row>
+    <row r="2025" spans="1:2">
+      <c r="A2025" s="90"/>
+      <c r="B2025" s="91"/>
     </row>
     <row r="2026" spans="1:2">
-      <c r="A2026" s="90"/>
       <c r="B2026" s="91"/>
     </row>
-    <row r="2027" spans="1:2">
-      <c r="B2027" s="91"/>
+    <row r="2028" spans="1:2">
+      <c r="A2028" s="90"/>
+      <c r="B2028" s="91"/>
     </row>
     <row r="2029" spans="1:2">
       <c r="A2029" s="90"/>
@@ -8064,19 +8213,18 @@
       <c r="A2030" s="90"/>
       <c r="B2030" s="91"/>
     </row>
-    <row r="2031" spans="1:2">
-      <c r="A2031" s="90"/>
-      <c r="B2031" s="91"/>
+    <row r="2032" spans="1:2">
+      <c r="B2032" s="91"/>
     </row>
     <row r="2033" spans="1:2">
+      <c r="A2033" s="90"/>
       <c r="B2033" s="91"/>
     </row>
     <row r="2034" spans="1:2">
-      <c r="A2034" s="90"/>
       <c r="B2034" s="91"/>
     </row>
-    <row r="2035" spans="1:2">
-      <c r="B2035" s="91"/>
+    <row r="2036" spans="1:2">
+      <c r="B2036" s="91"/>
     </row>
     <row r="2037" spans="1:2">
       <c r="B2037" s="91"/>
@@ -8087,29 +8235,30 @@
     <row r="2039" spans="1:2">
       <c r="B2039" s="91"/>
     </row>
-    <row r="2040" spans="1:2">
-      <c r="B2040" s="91"/>
-    </row>
-    <row r="2047" spans="1:2">
-      <c r="B2047" s="91"/>
-    </row>
-    <row r="2056" spans="1:2">
-      <c r="A2056" s="90"/>
-      <c r="B2056" s="91"/>
+    <row r="2046" spans="1:2">
+      <c r="B2046" s="91"/>
+    </row>
+    <row r="2055" spans="1:2">
+      <c r="A2055" s="90"/>
+      <c r="B2055" s="91"/>
+    </row>
+    <row r="2064" spans="1:2">
+      <c r="B2064" s="91"/>
     </row>
     <row r="2065" spans="1:2">
       <c r="B2065" s="91"/>
     </row>
-    <row r="2066" spans="1:2">
-      <c r="B2066" s="91"/>
+    <row r="2079" spans="1:2">
+      <c r="A2079" s="90"/>
+      <c r="B2079" s="91"/>
     </row>
     <row r="2080" spans="1:2">
       <c r="A2080" s="90"/>
       <c r="B2080" s="91"/>
     </row>
-    <row r="2081" spans="1:2">
-      <c r="A2081" s="90"/>
-      <c r="B2081" s="91"/>
+    <row r="2083" spans="1:2">
+      <c r="A2083" s="90"/>
+      <c r="B2083" s="91"/>
     </row>
     <row r="2084" spans="1:2">
       <c r="A2084" s="90"/>
@@ -8121,144 +8270,143 @@
     </row>
     <row r="2086" spans="1:2">
       <c r="A2086" s="90"/>
-      <c r="B2086" s="91"/>
     </row>
     <row r="2087" spans="1:2">
       <c r="A2087" s="90"/>
+      <c r="B2087" s="91"/>
     </row>
     <row r="2088" spans="1:2">
-      <c r="A2088" s="90"/>
-      <c r="B2088" s="91"/>
+      <c r="A2088" s="24"/>
     </row>
     <row r="2089" spans="1:2">
       <c r="A2089" s="24"/>
+      <c r="B2089" s="91"/>
     </row>
     <row r="2090" spans="1:2">
       <c r="A2090" s="24"/>
-      <c r="B2090" s="91"/>
     </row>
     <row r="2091" spans="1:2">
       <c r="A2091" s="24"/>
+      <c r="B2091" s="91"/>
     </row>
     <row r="2092" spans="1:2">
-      <c r="A2092" s="24"/>
+      <c r="A2092" s="91"/>
       <c r="B2092" s="91"/>
     </row>
     <row r="2093" spans="1:2">
-      <c r="A2093" s="91"/>
-      <c r="B2093" s="91"/>
+      <c r="A2093" s="24"/>
     </row>
     <row r="2094" spans="1:2">
       <c r="A2094" s="24"/>
     </row>
     <row r="2095" spans="1:2">
-      <c r="A2095" s="24"/>
-    </row>
-    <row r="2096" spans="1:2">
-      <c r="A2096" s="90"/>
-    </row>
-    <row r="2113" spans="1:2">
-      <c r="A2113" s="90"/>
-    </row>
-    <row r="2117" spans="1:2">
-      <c r="A2117" s="90"/>
-      <c r="B2117" s="91"/>
-    </row>
-    <row r="2121" spans="1:2">
-      <c r="A2121" s="90"/>
-      <c r="B2121" s="91"/>
-    </row>
-    <row r="2123" spans="1:2">
-      <c r="A2123" s="90"/>
-      <c r="B2123" s="91"/>
+      <c r="A2095" s="90"/>
+    </row>
+    <row r="2112" spans="1:1">
+      <c r="A2112" s="90"/>
+    </row>
+    <row r="2116" spans="1:2">
+      <c r="A2116" s="90"/>
+      <c r="B2116" s="91"/>
+    </row>
+    <row r="2120" spans="1:2">
+      <c r="A2120" s="90"/>
+      <c r="B2120" s="91"/>
+    </row>
+    <row r="2122" spans="1:2">
+      <c r="A2122" s="90"/>
+      <c r="B2122" s="91"/>
+    </row>
+    <row r="2126" spans="1:2">
+      <c r="B2126" s="93"/>
     </row>
     <row r="2127" spans="1:2">
       <c r="B2127" s="93"/>
     </row>
     <row r="2128" spans="1:2">
+      <c r="A2128" s="92"/>
       <c r="B2128" s="93"/>
     </row>
-    <row r="2129" spans="1:2">
-      <c r="A2129" s="92"/>
-      <c r="B2129" s="93"/>
-    </row>
-    <row r="2134" spans="1:2">
+    <row r="2133" spans="2:2">
+      <c r="B2133" s="93"/>
+    </row>
+    <row r="2134" spans="2:2">
       <c r="B2134" s="93"/>
     </row>
-    <row r="2135" spans="1:2">
-      <c r="B2135" s="93"/>
-    </row>
-    <row r="2141" spans="1:2">
-      <c r="B2141" s="93"/>
-    </row>
-    <row r="2144" spans="1:2">
-      <c r="B2144" s="93"/>
-    </row>
-    <row r="2150" spans="1:2">
-      <c r="B2150" s="93"/>
-    </row>
-    <row r="2153" spans="1:2">
-      <c r="A2153" s="92"/>
-      <c r="B2153" s="93"/>
-    </row>
-    <row r="2163" spans="1:2">
-      <c r="B2163" s="93"/>
-    </row>
-    <row r="2166" spans="1:2">
-      <c r="B2166" s="93"/>
-    </row>
-    <row r="2170" spans="1:2">
-      <c r="A2170" s="92"/>
-      <c r="B2170" s="93"/>
+    <row r="2140" spans="2:2">
+      <c r="B2140" s="93"/>
+    </row>
+    <row r="2143" spans="2:2">
+      <c r="B2143" s="93"/>
+    </row>
+    <row r="2149" spans="1:2">
+      <c r="B2149" s="93"/>
+    </row>
+    <row r="2152" spans="1:2">
+      <c r="A2152" s="92"/>
+      <c r="B2152" s="93"/>
+    </row>
+    <row r="2162" spans="1:2">
+      <c r="B2162" s="93"/>
+    </row>
+    <row r="2165" spans="1:2">
+      <c r="B2165" s="93"/>
+    </row>
+    <row r="2169" spans="1:2">
+      <c r="A2169" s="92"/>
+      <c r="B2169" s="93"/>
+    </row>
+    <row r="2209" spans="1:2">
+      <c r="A2209" s="95"/>
     </row>
     <row r="2210" spans="1:2">
       <c r="A2210" s="95"/>
+      <c r="B2210" s="94"/>
     </row>
     <row r="2211" spans="1:2">
-      <c r="A2211" s="95"/>
       <c r="B2211" s="94"/>
     </row>
     <row r="2212" spans="1:2">
       <c r="B2212" s="94"/>
     </row>
-    <row r="2213" spans="1:2">
-      <c r="B2213" s="94"/>
-    </row>
-    <row r="2220" spans="1:2">
-      <c r="B2220" s="94"/>
-    </row>
-    <row r="2222" spans="1:2">
-      <c r="A2222" s="95"/>
-      <c r="B2222" s="94"/>
-    </row>
-    <row r="2226" spans="1:2">
-      <c r="B2226" s="94"/>
+    <row r="2219" spans="1:2">
+      <c r="B2219" s="94"/>
+    </row>
+    <row r="2221" spans="1:2">
+      <c r="A2221" s="95"/>
+      <c r="B2221" s="94"/>
+    </row>
+    <row r="2225" spans="1:2">
+      <c r="B2225" s="94"/>
+    </row>
+    <row r="2229" spans="1:2">
+      <c r="A2229" s="95"/>
+      <c r="B2229" s="94"/>
     </row>
     <row r="2230" spans="1:2">
-      <c r="A2230" s="95"/>
       <c r="B2230" s="94"/>
     </row>
     <row r="2231" spans="1:2">
       <c r="B2231" s="94"/>
     </row>
-    <row r="2232" spans="1:2">
-      <c r="B2232" s="94"/>
-    </row>
-    <row r="2237" spans="1:2">
-      <c r="B2237" s="94"/>
-    </row>
-    <row r="2248" spans="1:2">
-      <c r="A2248" s="95"/>
-    </row>
-    <row r="2252" spans="1:2">
-      <c r="B2252" s="94"/>
-    </row>
-    <row r="2256" spans="1:2">
-      <c r="B2256" s="94"/>
+    <row r="2236" spans="1:2">
+      <c r="B2236" s="94"/>
+    </row>
+    <row r="2247" spans="1:2">
+      <c r="A2247" s="95"/>
+    </row>
+    <row r="2251" spans="1:2">
+      <c r="B2251" s="94"/>
+    </row>
+    <row r="2255" spans="1:2">
+      <c r="B2255" s="94"/>
+    </row>
+    <row r="2257" spans="1:2">
+      <c r="A2257" s="96"/>
+      <c r="B2257" s="97"/>
     </row>
     <row r="2258" spans="1:2">
-      <c r="A2258" s="96"/>
-      <c r="B2258" s="97"/>
+      <c r="B2258" s="98"/>
     </row>
     <row r="2259" spans="1:2">
       <c r="B2259" s="98"/>
@@ -8269,8 +8417,8 @@
     <row r="2261" spans="1:2">
       <c r="B2261" s="98"/>
     </row>
-    <row r="2262" spans="1:2">
-      <c r="B2262" s="98"/>
+    <row r="2264" spans="1:2">
+      <c r="B2264" s="98"/>
     </row>
     <row r="2265" spans="1:2">
       <c r="B2265" s="98"/>
@@ -8279,10 +8427,10 @@
       <c r="B2266" s="98"/>
     </row>
     <row r="2267" spans="1:2">
-      <c r="B2267" s="98"/>
+      <c r="B2267" s="99"/>
     </row>
     <row r="2268" spans="1:2">
-      <c r="B2268" s="99"/>
+      <c r="B2268" s="98"/>
     </row>
     <row r="2269" spans="1:2">
       <c r="B2269" s="98"/>
@@ -8296,8 +8444,8 @@
     <row r="2272" spans="1:2">
       <c r="B2272" s="98"/>
     </row>
-    <row r="2273" spans="2:2">
-      <c r="B2273" s="98"/>
+    <row r="2274" spans="2:2">
+      <c r="B2274" s="98"/>
     </row>
     <row r="2275" spans="2:2">
       <c r="B2275" s="98"/>
@@ -8333,7 +8481,7 @@
       <c r="B2285" s="98"/>
     </row>
     <row r="2286" spans="2:2">
-      <c r="B2286" s="98"/>
+      <c r="B2286" s="99"/>
     </row>
     <row r="2287" spans="2:2">
       <c r="B2287" s="99"/>
@@ -8382,16 +8530,13 @@
     </row>
     <row r="2302" spans="2:2">
       <c r="B2302" s="99"/>
-    </row>
-    <row r="2303" spans="2:2">
-      <c r="B2303" s="99"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B95">
     <sortCondition ref="B77:B95"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
